--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_11_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1816244.901728677</v>
+        <v>1781183.042618874</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1497258.768733338</v>
+        <v>1497258.768733337</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7284399.16738582</v>
+        <v>7284399.167385816</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5.130936752591023</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.08407736769428</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
         <v>14.85476540383092</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,55 +743,55 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>13.08407736769427</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>14.85476540383092</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>13.08407736769428</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="I4" t="n">
         <v>14.85476540383092</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.08407736769428</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.293863480540836</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="G5" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.130936752591019</v>
+        <v>12.42480023313186</v>
       </c>
       <c r="T5" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>14.85476540383092</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>13.08407736769428</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>13.08407736769428</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.16443305369185</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>13.16443305369184</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>12.42480023313186</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="F8" t="n">
-        <v>7.293863480540836</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="G8" t="n">
         <v>14.85476540383092</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.130936752591019</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1232,49 +1232,49 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="V9" t="n">
         <v>13.08407736769427</v>
       </c>
-      <c r="V9" t="n">
-        <v>14.85476540383092</v>
-      </c>
       <c r="W9" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13.08407736769428</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>13.16443305369185</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>163.0008645086939</v>
+        <v>413.4348099743523</v>
       </c>
       <c r="H11" t="n">
         <v>323.6017848460055</v>
@@ -1426,19 +1426,19 @@
         <v>216.7492623038777</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3641671421861</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>341.8322841082279</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.2634670712416</v>
+        <v>135.2634670712414</v>
       </c>
       <c r="H12" t="n">
         <v>103.1249963088466</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.9457246176775</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>55.36947426203895</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.257225463394</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0175280389577</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -1624,7 +1624,7 @@
         <v>413.4348099743523</v>
       </c>
       <c r="H14" t="n">
-        <v>323.6017848460055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>52.65454745389098</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>199.2264153103954</v>
       </c>
       <c r="Y14" t="n">
-        <v>348.1525426603576</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1748,7 +1748,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.9893467500004</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2526458081554</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0175280389577</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>114.7894987972012</v>
       </c>
       <c r="W16" t="n">
-        <v>190.5576999102158</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>99.6591927568053</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.6017848460055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.65454745389098</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>216.7492623038777</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3641671421861</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>303.5312214755718</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -2046,31 +2046,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.42539900034453</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>211.257225463394</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0175280389577</v>
       </c>
       <c r="V19" t="n">
-        <v>230.4683053920676</v>
+        <v>114.7894987972012</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -2092,10 +2092,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.86645025434919</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.4348099743523</v>
       </c>
       <c r="H20" t="n">
         <v>323.6017848460055</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3641671421861</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>222.7204493735533</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.1363321161039</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2526458081554</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.6039300026836</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.42539900034453</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>77.0473943058832</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.6017848460055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>150.4814761731497</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>52.65454745389098</v>
       </c>
       <c r="S23" t="n">
-        <v>173.5077173742953</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.7492623038777</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3641671421861</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>50.02957742449721</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>319.0985025783435</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.2526458081554</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>71.54745357172851</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.6039300026836</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0175280389577</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>84.53995623889496</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>73.80895119020138</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>52.65454745389098</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3641671421861</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>59.04530112978149</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>68.51130137553861</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2526458081554</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>155.9710686155564</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.42539900034453</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6109817431647</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.6205100795768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>151.1550630463549</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>150.4814761731497</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>258.3919219063631</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2526458081554</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.40954176430639</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.257225463394</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6109817431647</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>208.3522709134705</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>218.2418289622948</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4348099743523</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>150.4814761731497</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.65454745389098</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>173.5077173742953</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.7492623038777</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>311.0464693602539</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>7.05694166009823</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.42539900034453</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>144.7518687499863</v>
       </c>
       <c r="S34" t="n">
-        <v>211.257225463394</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.52875944291036</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>222.4203589386185</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>413.4348099743523</v>
       </c>
       <c r="H35" t="n">
-        <v>323.6017848460055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>52.65454745389098</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>173.5077173742953</v>
       </c>
       <c r="T35" t="n">
         <v>216.7492623038777</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3641671421861</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -3334,7 +3334,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>28.18694401265421</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.0255839274002</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3429,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>18.69559828829325</v>
       </c>
       <c r="F37" t="n">
-        <v>97.29882150982942</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>155.9710686155564</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.80696620573011</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.42539900034453</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>144.7518687499863</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6109817431647</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>94.49041869514615</v>
+        <v>413.4348099743523</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>52.65454745389098</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>150.6632859689914</v>
       </c>
       <c r="T38" t="n">
         <v>216.7492623038777</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3641671421861</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -3602,7 +3602,7 @@
         <v>103.1249963088466</v>
       </c>
       <c r="I39" t="n">
-        <v>60.34572065698024</v>
+        <v>60.34572065698087</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>87.395359618199</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2526458081554</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>211.257225463394</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>22.21324844156263</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.0925768874155</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4348099743523</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>150.4814761731497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>52.65454745389098</v>
       </c>
       <c r="S41" t="n">
-        <v>136.2085789045753</v>
+        <v>173.5077173742953</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.7492623038777</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>327.6781905652859</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>16.25564487797646</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>167.2526458081554</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>155.9710686155564</v>
       </c>
       <c r="I43" t="n">
-        <v>134.6039300026836</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.319729871768</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>313.2919950239638</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>141.7145444285459</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>52.65454745389098</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>173.5077173742953</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>251.3641671421861</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -4106,7 +4106,7 @@
         <v>47.52426133090066</v>
       </c>
       <c r="S45" t="n">
-        <v>154.8497184159681</v>
+        <v>154.8497184159682</v>
       </c>
       <c r="T45" t="n">
         <v>195.3202339259753</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>87.395359618199</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>88.36409979685664</v>
+        <v>167.2526458081554</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.42539900034453</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0175280389577</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="C2" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="D2" t="n">
-        <v>44.41424807610054</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="E2" t="n">
-        <v>29.40943453687738</v>
+        <v>24.2266701403208</v>
       </c>
       <c r="F2" t="n">
-        <v>16.19319477152963</v>
+        <v>16.85913127108763</v>
       </c>
       <c r="G2" t="n">
-        <v>1.188381232306474</v>
+        <v>1.85431773186447</v>
       </c>
       <c r="H2" t="n">
-        <v>1.188381232306474</v>
+        <v>1.85431773186447</v>
       </c>
       <c r="I2" t="n">
-        <v>1.188381232306474</v>
+        <v>1.85431773186447</v>
       </c>
       <c r="J2" t="n">
         <v>1.188381232306474</v>
       </c>
       <c r="K2" t="n">
-        <v>11.28146113382036</v>
+        <v>15.89459898209909</v>
       </c>
       <c r="L2" t="n">
-        <v>25.98767888361298</v>
+        <v>30.6008167318917</v>
       </c>
       <c r="M2" t="n">
-        <v>25.98767888361298</v>
+        <v>45.30703448168432</v>
       </c>
       <c r="N2" t="n">
-        <v>25.98767888361298</v>
+        <v>55.40011438319821</v>
       </c>
       <c r="O2" t="n">
-        <v>40.69389663340559</v>
+        <v>55.40011438319821</v>
       </c>
       <c r="P2" t="n">
         <v>55.40011438319821</v>
@@ -4354,28 +4354,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="R2" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="S2" t="n">
-        <v>59.4190616153237</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="T2" t="n">
-        <v>59.4190616153237</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="U2" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="V2" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="W2" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="X2" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="C3" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="D3" t="n">
-        <v>14.40462099765423</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="E3" t="n">
-        <v>14.40462099765423</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="F3" t="n">
-        <v>1.188381232306474</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="G3" t="n">
-        <v>1.188381232306474</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="H3" t="n">
-        <v>1.188381232306474</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="I3" t="n">
         <v>1.188381232306474</v>
       </c>
       <c r="J3" t="n">
-        <v>1.188381232306474</v>
+        <v>8.581692078791374</v>
       </c>
       <c r="K3" t="n">
-        <v>1.188381232306474</v>
+        <v>23.28790982858399</v>
       </c>
       <c r="L3" t="n">
-        <v>1.188381232306474</v>
+        <v>37.99412757837661</v>
       </c>
       <c r="M3" t="n">
-        <v>15.89459898209909</v>
+        <v>52.70034532816922</v>
       </c>
       <c r="N3" t="n">
-        <v>30.6008167318917</v>
+        <v>52.70034532816922</v>
       </c>
       <c r="O3" t="n">
-        <v>30.6008167318917</v>
+        <v>52.70034532816922</v>
       </c>
       <c r="P3" t="n">
-        <v>45.30703448168432</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Q3" t="n">
         <v>59.4190616153237</v>
       </c>
       <c r="R3" t="n">
-        <v>44.41424807610054</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="S3" t="n">
-        <v>44.41424807610054</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="T3" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="U3" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="V3" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="W3" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="X3" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.40943453687738</v>
+        <v>46.20282184997595</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.19319477152963</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="C4" t="n">
-        <v>16.19319477152963</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="D4" t="n">
-        <v>16.19319477152963</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="E4" t="n">
-        <v>16.19319477152963</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="F4" t="n">
-        <v>16.19319477152963</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="G4" t="n">
-        <v>16.19319477152963</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="H4" t="n">
         <v>16.19319477152963</v>
@@ -4494,46 +4494,46 @@
         <v>1.188381232306474</v>
       </c>
       <c r="L4" t="n">
-        <v>15.89459898209909</v>
+        <v>9.239606686248854</v>
       </c>
       <c r="M4" t="n">
-        <v>30.6008167318917</v>
+        <v>23.94582443604147</v>
       </c>
       <c r="N4" t="n">
-        <v>44.71284386553108</v>
+        <v>38.65204218583408</v>
       </c>
       <c r="O4" t="n">
-        <v>59.4190616153237</v>
+        <v>53.3582599356267</v>
       </c>
       <c r="P4" t="n">
         <v>59.4190616153237</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="R4" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="S4" t="n">
-        <v>29.40943453687738</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="T4" t="n">
-        <v>29.40943453687738</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="U4" t="n">
-        <v>29.40943453687738</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="V4" t="n">
-        <v>29.40943453687738</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="W4" t="n">
-        <v>29.40943453687738</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="X4" t="n">
-        <v>16.19319477152963</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.19319477152963</v>
+        <v>59.4190616153237</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="C5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="D5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="E5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="F5" t="n">
+        <v>31.86394481031078</v>
+      </c>
+      <c r="G5" t="n">
         <v>16.85913127108763</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.85431773186447</v>
       </c>
       <c r="H5" t="n">
         <v>1.85431773186447</v>
@@ -4573,19 +4573,19 @@
         <v>15.89459898209909</v>
       </c>
       <c r="L5" t="n">
-        <v>25.98767888361298</v>
+        <v>30.6008167318917</v>
       </c>
       <c r="M5" t="n">
-        <v>40.69389663340559</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="N5" t="n">
-        <v>40.69389663340559</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="O5" t="n">
-        <v>55.40011438319821</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="P5" t="n">
-        <v>55.40011438319821</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Q5" t="n">
         <v>59.4190616153237</v>
@@ -4594,25 +4594,25 @@
         <v>59.4190616153237</v>
       </c>
       <c r="S5" t="n">
-        <v>54.23629721876711</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="T5" t="n">
-        <v>39.23148367954396</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="U5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="V5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="W5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="X5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>1.188381232306474</v>
       </c>
       <c r="J6" t="n">
-        <v>1.188381232306474</v>
+        <v>8.581692078791374</v>
       </c>
       <c r="K6" t="n">
-        <v>1.188381232306474</v>
+        <v>23.28790982858399</v>
       </c>
       <c r="L6" t="n">
-        <v>1.188381232306474</v>
+        <v>37.99412757837661</v>
       </c>
       <c r="M6" t="n">
-        <v>15.89459898209909</v>
+        <v>37.99412757837661</v>
       </c>
       <c r="N6" t="n">
-        <v>30.6008167318917</v>
+        <v>37.99412757837661</v>
       </c>
       <c r="O6" t="n">
+        <v>37.99412757837661</v>
+      </c>
+      <c r="P6" t="n">
         <v>44.71284386553108</v>
-      </c>
-      <c r="P6" t="n">
-        <v>59.4190616153237</v>
       </c>
       <c r="Q6" t="n">
         <v>59.4190616153237</v>
@@ -4673,22 +4673,22 @@
         <v>44.41424807610054</v>
       </c>
       <c r="S6" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="T6" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="U6" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="V6" t="n">
-        <v>44.41424807610054</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="W6" t="n">
-        <v>44.41424807610054</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="X6" t="n">
-        <v>31.19800831075279</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="Y6" t="n">
         <v>16.19319477152963</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.40943453687738</v>
+        <v>31.11684095115928</v>
       </c>
       <c r="C7" t="n">
-        <v>29.40943453687738</v>
+        <v>31.11684095115928</v>
       </c>
       <c r="D7" t="n">
-        <v>29.40943453687738</v>
+        <v>31.11684095115928</v>
       </c>
       <c r="E7" t="n">
-        <v>29.40943453687738</v>
+        <v>31.11684095115928</v>
       </c>
       <c r="F7" t="n">
-        <v>29.40943453687738</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="G7" t="n">
-        <v>29.40943453687738</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="H7" t="n">
         <v>16.11202741193612</v>
@@ -4731,7 +4731,7 @@
         <v>1.188381232306474</v>
       </c>
       <c r="L7" t="n">
-        <v>15.89459898209909</v>
+        <v>9.239606686248854</v>
       </c>
       <c r="M7" t="n">
         <v>23.94582443604147</v>
@@ -4752,25 +4752,25 @@
         <v>59.4190616153237</v>
       </c>
       <c r="S7" t="n">
-        <v>59.4190616153237</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="T7" t="n">
-        <v>59.4190616153237</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="U7" t="n">
-        <v>59.4190616153237</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="V7" t="n">
-        <v>59.4190616153237</v>
+        <v>46.12165449038244</v>
       </c>
       <c r="W7" t="n">
-        <v>44.41424807610054</v>
+        <v>31.11684095115928</v>
       </c>
       <c r="X7" t="n">
-        <v>44.41424807610054</v>
+        <v>31.11684095115928</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.40943453687738</v>
+        <v>31.11684095115928</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.2266701403208</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2266701403208</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2266701403208</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="E8" t="n">
-        <v>24.2266701403208</v>
+        <v>31.86394481031078</v>
       </c>
       <c r="F8" t="n">
         <v>16.85913127108763</v>
@@ -4807,22 +4807,22 @@
         <v>1.188381232306474</v>
       </c>
       <c r="K8" t="n">
-        <v>11.28146113382036</v>
+        <v>15.89459898209909</v>
       </c>
       <c r="L8" t="n">
-        <v>11.28146113382036</v>
+        <v>30.6008167318917</v>
       </c>
       <c r="M8" t="n">
-        <v>11.28146113382036</v>
+        <v>45.30703448168432</v>
       </c>
       <c r="N8" t="n">
-        <v>25.98767888361298</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="O8" t="n">
-        <v>40.69389663340559</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="P8" t="n">
-        <v>55.40011438319821</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Q8" t="n">
         <v>59.4190616153237</v>
@@ -4831,25 +4831,25 @@
         <v>59.4190616153237</v>
       </c>
       <c r="S8" t="n">
-        <v>54.23629721876711</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="T8" t="n">
-        <v>39.23148367954396</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="U8" t="n">
-        <v>24.2266701403208</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="V8" t="n">
-        <v>24.2266701403208</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="W8" t="n">
-        <v>24.2266701403208</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="X8" t="n">
-        <v>24.2266701403208</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Y8" t="n">
-        <v>24.2266701403208</v>
+        <v>59.4190616153237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="C9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="D9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="E9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="F9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="G9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="H9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="I9" t="n">
         <v>1.188381232306474</v>
@@ -4886,19 +4886,19 @@
         <v>1.188381232306474</v>
       </c>
       <c r="K9" t="n">
-        <v>15.30040836594585</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="L9" t="n">
-        <v>30.00662611573847</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="M9" t="n">
-        <v>44.71284386553108</v>
+        <v>15.89459898209909</v>
       </c>
       <c r="N9" t="n">
-        <v>59.4190616153237</v>
+        <v>30.6008167318917</v>
       </c>
       <c r="O9" t="n">
-        <v>59.4190616153237</v>
+        <v>45.30703448168432</v>
       </c>
       <c r="P9" t="n">
         <v>59.4190616153237</v>
@@ -4907,28 +4907,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="R9" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="S9" t="n">
-        <v>59.4190616153237</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="T9" t="n">
-        <v>59.4190616153237</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="U9" t="n">
-        <v>46.20282184997595</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="V9" t="n">
-        <v>31.19800831075279</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="W9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="X9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.11202741193612</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="C10" t="n">
-        <v>16.11202741193612</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="D10" t="n">
-        <v>16.11202741193612</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="E10" t="n">
-        <v>16.11202741193612</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="F10" t="n">
-        <v>16.11202741193612</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="G10" t="n">
-        <v>16.11202741193612</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="H10" t="n">
-        <v>16.11202741193612</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="I10" t="n">
-        <v>16.11202741193612</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="J10" t="n">
-        <v>16.11202741193612</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="K10" t="n">
         <v>1.188381232306474</v>
@@ -4983,31 +4983,31 @@
         <v>59.4190616153237</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="R10" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="S10" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="T10" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="U10" t="n">
         <v>44.41424807610054</v>
       </c>
       <c r="V10" t="n">
-        <v>31.11684095115928</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="W10" t="n">
-        <v>16.11202741193612</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="X10" t="n">
-        <v>16.11202741193612</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.11202741193612</v>
+        <v>44.41424807610054</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1067.666627263015</v>
+        <v>2108.540851280331</v>
       </c>
       <c r="C11" t="n">
-        <v>696.9746114256988</v>
+        <v>2108.540851280331</v>
       </c>
       <c r="D11" t="n">
-        <v>696.9746114256988</v>
+        <v>1748.33405051811</v>
       </c>
       <c r="E11" t="n">
-        <v>696.9746114256988</v>
+        <v>1361.346135613779</v>
       </c>
       <c r="F11" t="n">
-        <v>696.9746114256988</v>
+        <v>949.9381927041416</v>
       </c>
       <c r="G11" t="n">
         <v>532.3272735381291</v>
@@ -5038,7 +5038,7 @@
         <v>205.4567837946892</v>
       </c>
       <c r="I11" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J11" t="n">
         <v>172.1143810588664</v>
@@ -5059,7 +5059,7 @@
         <v>2270.342913738216</v>
       </c>
       <c r="P11" t="n">
-        <v>2516.9398685366</v>
+        <v>2580.618666565079</v>
       </c>
       <c r="Q11" t="n">
         <v>2672.764635534983</v>
@@ -5071,22 +5071,22 @@
         <v>2672.764635534983</v>
       </c>
       <c r="T11" t="n">
-        <v>2453.825986743188</v>
+        <v>2453.825986743187</v>
       </c>
       <c r="U11" t="n">
-        <v>2199.922787609667</v>
+        <v>2453.825986743187</v>
       </c>
       <c r="V11" t="n">
-        <v>2199.922787609667</v>
+        <v>2453.825986743187</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.851962356581</v>
+        <v>2108.540851280331</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.851962356581</v>
+        <v>2108.540851280331</v>
       </c>
       <c r="Y11" t="n">
-        <v>1455.258960587656</v>
+        <v>2108.540851280331</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>978.113734458012</v>
+        <v>978.1137344580115</v>
       </c>
       <c r="C12" t="n">
-        <v>805.360619379829</v>
+        <v>805.3606193798286</v>
       </c>
       <c r="D12" t="n">
-        <v>657.7723127387728</v>
+        <v>657.7723127387724</v>
       </c>
       <c r="E12" t="n">
-        <v>500.1627837416274</v>
+        <v>500.1627837416271</v>
       </c>
       <c r="F12" t="n">
-        <v>355.2069937582444</v>
+        <v>355.2069937582439</v>
       </c>
       <c r="G12" t="n">
-        <v>218.5772290398185</v>
+        <v>218.5772290398183</v>
       </c>
       <c r="H12" t="n">
-        <v>114.4105661015897</v>
+        <v>114.4105661015894</v>
       </c>
       <c r="I12" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J12" t="n">
         <v>131.9098780166143</v>
       </c>
       <c r="K12" t="n">
-        <v>377.0987140383585</v>
+        <v>392.6068735991988</v>
       </c>
       <c r="L12" t="n">
-        <v>788.4876035698298</v>
+        <v>803.9957631306702</v>
       </c>
       <c r="M12" t="n">
-        <v>1321.359227767429</v>
+        <v>1336.86738732827</v>
       </c>
       <c r="N12" t="n">
-        <v>1883.733110251967</v>
+        <v>1899.241269812807</v>
       </c>
       <c r="O12" t="n">
-        <v>2330.567325376202</v>
+        <v>2153.378418217466</v>
       </c>
       <c r="P12" t="n">
-        <v>2672.764635534983</v>
+        <v>2495.575728376248</v>
       </c>
       <c r="Q12" t="n">
         <v>2672.764635534983</v>
@@ -5147,10 +5147,10 @@
         <v>2624.760331160336</v>
       </c>
       <c r="S12" t="n">
-        <v>2468.34647417451</v>
+        <v>2468.346474174509</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.053308592717</v>
+        <v>2271.053308592716</v>
       </c>
       <c r="U12" t="n">
         <v>2044.17735509141</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202.8954185871416</v>
+        <v>278.4108757341757</v>
       </c>
       <c r="C13" t="n">
-        <v>202.8954185871416</v>
+        <v>109.3840545915471</v>
       </c>
       <c r="D13" t="n">
-        <v>202.8954185871416</v>
+        <v>109.3840545915471</v>
       </c>
       <c r="E13" t="n">
-        <v>202.8954185871416</v>
+        <v>109.3840545915471</v>
       </c>
       <c r="F13" t="n">
-        <v>202.8954185871416</v>
+        <v>109.3840545915471</v>
       </c>
       <c r="G13" t="n">
-        <v>53.45529271069967</v>
+        <v>109.3840545915471</v>
       </c>
       <c r="H13" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="I13" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J13" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="K13" t="n">
         <v>112.0898249770327</v>
@@ -5226,25 +5226,25 @@
         <v>747.2932762698658</v>
       </c>
       <c r="S13" t="n">
-        <v>747.2932762698658</v>
+        <v>533.9021394381547</v>
       </c>
       <c r="T13" t="n">
-        <v>747.2932762698658</v>
+        <v>533.9021394381547</v>
       </c>
       <c r="U13" t="n">
-        <v>458.3866822911206</v>
+        <v>533.9021394381547</v>
       </c>
       <c r="V13" t="n">
-        <v>202.8954185871416</v>
+        <v>278.4108757341757</v>
       </c>
       <c r="W13" t="n">
-        <v>202.8954185871416</v>
+        <v>278.4108757341757</v>
       </c>
       <c r="X13" t="n">
-        <v>202.8954185871416</v>
+        <v>278.4108757341757</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.8954185871416</v>
+        <v>278.4108757341757</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1967.024575271436</v>
+        <v>1640.154085527996</v>
       </c>
       <c r="C14" t="n">
-        <v>1596.33255943412</v>
+        <v>1269.46206969068</v>
       </c>
       <c r="D14" t="n">
-        <v>1596.33255943412</v>
+        <v>1269.46206969068</v>
       </c>
       <c r="E14" t="n">
-        <v>1209.344644529789</v>
+        <v>882.4741547863493</v>
       </c>
       <c r="F14" t="n">
-        <v>797.936701620152</v>
+        <v>471.0662118767121</v>
       </c>
       <c r="G14" t="n">
-        <v>380.3257824541396</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="H14" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="I14" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J14" t="n">
         <v>172.1143810588664</v>
@@ -5296,34 +5296,34 @@
         <v>2270.342913738216</v>
       </c>
       <c r="P14" t="n">
-        <v>2516.9398685366</v>
+        <v>2580.618666565079</v>
       </c>
       <c r="Q14" t="n">
         <v>2672.764635534983</v>
       </c>
       <c r="R14" t="n">
-        <v>2672.764635534983</v>
+        <v>2619.578223965396</v>
       </c>
       <c r="S14" t="n">
-        <v>2672.764635534983</v>
+        <v>2619.578223965396</v>
       </c>
       <c r="T14" t="n">
-        <v>2672.764635534983</v>
+        <v>2619.578223965396</v>
       </c>
       <c r="U14" t="n">
-        <v>2672.764635534983</v>
+        <v>2619.578223965396</v>
       </c>
       <c r="V14" t="n">
-        <v>2672.764635534983</v>
+        <v>2619.578223965396</v>
       </c>
       <c r="W14" t="n">
-        <v>2318.693810281898</v>
+        <v>2619.578223965396</v>
       </c>
       <c r="X14" t="n">
-        <v>2318.693810281898</v>
+        <v>2418.339420621563</v>
       </c>
       <c r="Y14" t="n">
-        <v>1967.024575271436</v>
+        <v>2027.746418852637</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>114.4105661015894</v>
       </c>
       <c r="I15" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J15" t="n">
         <v>131.9098780166143</v>
       </c>
       <c r="K15" t="n">
-        <v>199.9098068796233</v>
+        <v>392.6068735991988</v>
       </c>
       <c r="L15" t="n">
-        <v>611.2986964110946</v>
+        <v>803.9957631306702</v>
       </c>
       <c r="M15" t="n">
-        <v>1144.170320608694</v>
+        <v>1336.86738732827</v>
       </c>
       <c r="N15" t="n">
-        <v>1706.544203093231</v>
+        <v>1899.241269812807</v>
       </c>
       <c r="O15" t="n">
         <v>2153.378418217466</v>
@@ -5384,7 +5384,7 @@
         <v>2624.760331160336</v>
       </c>
       <c r="S15" t="n">
-        <v>2468.34647417451</v>
+        <v>2468.346474174509</v>
       </c>
       <c r="T15" t="n">
         <v>2271.053308592716</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372.9080324305733</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="C16" t="n">
-        <v>372.9080324305733</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="D16" t="n">
-        <v>222.397359183584</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="E16" t="n">
-        <v>222.397359183584</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="F16" t="n">
-        <v>222.397359183584</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="G16" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="H16" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="I16" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J16" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="K16" t="n">
         <v>112.0898249770327</v>
@@ -5469,19 +5469,19 @@
         <v>747.2932762698658</v>
       </c>
       <c r="U16" t="n">
-        <v>747.2932762698658</v>
+        <v>458.3866822911206</v>
       </c>
       <c r="V16" t="n">
-        <v>747.2932762698658</v>
+        <v>342.437693607079</v>
       </c>
       <c r="W16" t="n">
-        <v>554.8107511080317</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="X16" t="n">
-        <v>554.8107511080317</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.8107511080317</v>
+        <v>53.45529271069966</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>952.517001794168</v>
+        <v>740.5325832163602</v>
       </c>
       <c r="C17" t="n">
-        <v>851.8511505246677</v>
+        <v>740.5325832163602</v>
       </c>
       <c r="D17" t="n">
-        <v>851.8511505246677</v>
+        <v>380.3257824541396</v>
       </c>
       <c r="E17" t="n">
-        <v>464.8632356203369</v>
+        <v>380.3257824541396</v>
       </c>
       <c r="F17" t="n">
-        <v>53.45529271069967</v>
+        <v>380.3257824541396</v>
       </c>
       <c r="G17" t="n">
-        <v>53.45529271069967</v>
+        <v>380.3257824541396</v>
       </c>
       <c r="H17" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="I17" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J17" t="n">
         <v>172.1143810588664</v>
@@ -5533,34 +5533,34 @@
         <v>2270.342913738216</v>
       </c>
       <c r="P17" t="n">
-        <v>2580.618666565079</v>
+        <v>2516.9398685366</v>
       </c>
       <c r="Q17" t="n">
         <v>2672.764635534983</v>
       </c>
       <c r="R17" t="n">
-        <v>2619.578223965397</v>
+        <v>2672.764635534983</v>
       </c>
       <c r="S17" t="n">
-        <v>2619.578223965397</v>
+        <v>2672.764635534983</v>
       </c>
       <c r="T17" t="n">
-        <v>2400.639575173601</v>
+        <v>2453.825986743187</v>
       </c>
       <c r="U17" t="n">
-        <v>2400.639575173601</v>
+        <v>2199.922787609666</v>
       </c>
       <c r="V17" t="n">
-        <v>2068.787836261965</v>
+        <v>2199.922787609666</v>
       </c>
       <c r="W17" t="n">
-        <v>1714.71701100888</v>
+        <v>1893.325594199997</v>
       </c>
       <c r="X17" t="n">
-        <v>1340.109335118809</v>
+        <v>1518.717918309927</v>
       </c>
       <c r="Y17" t="n">
-        <v>1340.109335118809</v>
+        <v>1128.124916541002</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>978.1137344580115</v>
       </c>
       <c r="C18" t="n">
-        <v>805.3606193798287</v>
+        <v>805.3606193798286</v>
       </c>
       <c r="D18" t="n">
-        <v>657.7723127387726</v>
+        <v>657.7723127387724</v>
       </c>
       <c r="E18" t="n">
-        <v>500.1627837416273</v>
+        <v>500.162783741627</v>
       </c>
       <c r="F18" t="n">
-        <v>355.2069937582442</v>
+        <v>355.206993758244</v>
       </c>
       <c r="G18" t="n">
-        <v>218.5772290398183</v>
+        <v>218.5772290398181</v>
       </c>
       <c r="H18" t="n">
         <v>114.4105661015894</v>
       </c>
       <c r="I18" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J18" t="n">
         <v>131.9098780166143</v>
@@ -5621,7 +5621,7 @@
         <v>2624.760331160336</v>
       </c>
       <c r="S18" t="n">
-        <v>2468.346474174509</v>
+        <v>2468.34647417451</v>
       </c>
       <c r="T18" t="n">
         <v>2271.053308592716</v>
@@ -5636,7 +5636,7 @@
         <v>1557.411619950344</v>
       </c>
       <c r="X18" t="n">
-        <v>1350.884721355921</v>
+        <v>1350.884721355922</v>
       </c>
       <c r="Y18" t="n">
         <v>1145.156285579572</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="C19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="D19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="E19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="F19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="G19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="H19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="I19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="K19" t="n">
         <v>112.0898249770327</v>
@@ -5694,31 +5694,31 @@
         <v>747.2932762698658</v>
       </c>
       <c r="Q19" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="R19" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="S19" t="n">
-        <v>507.2098172155844</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="T19" t="n">
-        <v>507.2098172155844</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="U19" t="n">
-        <v>507.2098172155844</v>
+        <v>458.3866822911206</v>
       </c>
       <c r="V19" t="n">
-        <v>274.4135491427888</v>
+        <v>342.437693607079</v>
       </c>
       <c r="W19" t="n">
-        <v>274.4135491427888</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="X19" t="n">
-        <v>274.4135491427888</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.45529271069967</v>
+        <v>53.45529271069966</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1279.52198920468</v>
+        <v>2069.71022749523</v>
       </c>
       <c r="C20" t="n">
-        <v>1279.52198920468</v>
+        <v>1699.018211657914</v>
       </c>
       <c r="D20" t="n">
-        <v>919.3151884424599</v>
+        <v>1338.811410895694</v>
       </c>
       <c r="E20" t="n">
-        <v>532.3272735381291</v>
+        <v>951.823495991363</v>
       </c>
       <c r="F20" t="n">
-        <v>532.3272735381291</v>
+        <v>949.9381927041416</v>
       </c>
       <c r="G20" t="n">
         <v>532.3272735381291</v>
@@ -5752,22 +5752,22 @@
         <v>53.45529271069966</v>
       </c>
       <c r="J20" t="n">
-        <v>172.1143810588664</v>
+        <v>108.4355830303869</v>
       </c>
       <c r="K20" t="n">
-        <v>472.2301880288852</v>
+        <v>408.5513900004057</v>
       </c>
       <c r="L20" t="n">
-        <v>896.5194627533209</v>
+        <v>832.8406647248414</v>
       </c>
       <c r="M20" t="n">
-        <v>1383.835326533289</v>
+        <v>1320.156528504809</v>
       </c>
       <c r="N20" t="n">
-        <v>1863.519295469997</v>
+        <v>1799.840497441518</v>
       </c>
       <c r="O20" t="n">
-        <v>2270.342913738216</v>
+        <v>2206.664115709737</v>
       </c>
       <c r="P20" t="n">
         <v>2516.9398685366</v>
@@ -5785,19 +5785,19 @@
         <v>2444.3179033853</v>
       </c>
       <c r="U20" t="n">
-        <v>2190.414704251779</v>
+        <v>2444.3179033853</v>
       </c>
       <c r="V20" t="n">
-        <v>1858.562965340143</v>
+        <v>2444.3179033853</v>
       </c>
       <c r="W20" t="n">
-        <v>1504.492140087058</v>
+        <v>2444.3179033853</v>
       </c>
       <c r="X20" t="n">
-        <v>1279.52198920468</v>
+        <v>2069.71022749523</v>
       </c>
       <c r="Y20" t="n">
-        <v>1279.52198920468</v>
+        <v>2069.71022749523</v>
       </c>
     </row>
     <row r="21">
@@ -5810,19 +5810,19 @@
         <v>978.1137344580115</v>
       </c>
       <c r="C21" t="n">
-        <v>805.3606193798286</v>
+        <v>805.3606193798287</v>
       </c>
       <c r="D21" t="n">
-        <v>657.7723127387724</v>
+        <v>657.7723127387726</v>
       </c>
       <c r="E21" t="n">
-        <v>500.162783741627</v>
+        <v>500.1627837416273</v>
       </c>
       <c r="F21" t="n">
-        <v>355.206993758244</v>
+        <v>355.2069937582442</v>
       </c>
       <c r="G21" t="n">
-        <v>218.5772290398181</v>
+        <v>218.5772290398183</v>
       </c>
       <c r="H21" t="n">
         <v>114.4105661015894</v>
@@ -5843,13 +5843,13 @@
         <v>1336.86738732827</v>
       </c>
       <c r="N21" t="n">
-        <v>1899.241269812807</v>
+        <v>1706.544203093231</v>
       </c>
       <c r="O21" t="n">
-        <v>2346.075484937042</v>
+        <v>2153.378418217466</v>
       </c>
       <c r="P21" t="n">
-        <v>2672.764635534983</v>
+        <v>2495.575728376248</v>
       </c>
       <c r="Q21" t="n">
         <v>2672.764635534983</v>
@@ -5858,7 +5858,7 @@
         <v>2624.760331160336</v>
       </c>
       <c r="S21" t="n">
-        <v>2468.34647417451</v>
+        <v>2468.346474174509</v>
       </c>
       <c r="T21" t="n">
         <v>2271.053308592716</v>
@@ -5873,7 +5873,7 @@
         <v>1557.411619950344</v>
       </c>
       <c r="X21" t="n">
-        <v>1350.884721355922</v>
+        <v>1350.884721355921</v>
       </c>
       <c r="Y21" t="n">
         <v>1145.156285579572</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.4241803262126</v>
+        <v>487.564906778384</v>
       </c>
       <c r="C22" t="n">
-        <v>222.397359183584</v>
+        <v>487.564906778384</v>
       </c>
       <c r="D22" t="n">
-        <v>222.397359183584</v>
+        <v>337.0542335313947</v>
       </c>
       <c r="E22" t="n">
-        <v>222.397359183584</v>
+        <v>337.0542335313947</v>
       </c>
       <c r="F22" t="n">
-        <v>222.397359183584</v>
+        <v>189.418858369976</v>
       </c>
       <c r="G22" t="n">
-        <v>53.45529271069966</v>
+        <v>189.418858369976</v>
       </c>
       <c r="H22" t="n">
-        <v>53.45529271069966</v>
+        <v>189.418858369976</v>
       </c>
       <c r="I22" t="n">
         <v>53.45529271069966</v>
@@ -5931,31 +5931,31 @@
         <v>747.2932762698658</v>
       </c>
       <c r="Q22" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="R22" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="S22" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="T22" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="U22" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="V22" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="W22" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="X22" t="n">
-        <v>720.6009540472955</v>
+        <v>669.4676254558424</v>
       </c>
       <c r="Y22" t="n">
-        <v>499.6426976152064</v>
+        <v>669.4676254558424</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1651.5135723487</v>
+        <v>1584.049534430908</v>
       </c>
       <c r="C23" t="n">
-        <v>1280.821556511384</v>
+        <v>1213.357518593592</v>
       </c>
       <c r="D23" t="n">
-        <v>920.6147557491636</v>
+        <v>853.1507178313714</v>
       </c>
       <c r="E23" t="n">
-        <v>533.6268408448328</v>
+        <v>466.1628029270406</v>
       </c>
       <c r="F23" t="n">
-        <v>533.6268408448328</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="G23" t="n">
-        <v>533.6268408448328</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="H23" t="n">
-        <v>206.7563511013929</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="I23" t="n">
         <v>54.75486001740332</v>
       </c>
       <c r="J23" t="n">
-        <v>173.4139483655699</v>
+        <v>173.4139483655701</v>
       </c>
       <c r="K23" t="n">
-        <v>473.5297553355886</v>
+        <v>473.5297553355889</v>
       </c>
       <c r="L23" t="n">
-        <v>897.819030060024</v>
+        <v>897.8190300600245</v>
       </c>
       <c r="M23" t="n">
         <v>1385.134893839992</v>
@@ -6013,28 +6013,28 @@
         <v>2737.743000870166</v>
       </c>
       <c r="R23" t="n">
-        <v>2737.743000870166</v>
+        <v>2684.556589300579</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.48268029007</v>
+        <v>2684.556589300579</v>
       </c>
       <c r="T23" t="n">
-        <v>2343.544031498274</v>
+        <v>2684.556589300579</v>
       </c>
       <c r="U23" t="n">
-        <v>2089.640832364753</v>
+        <v>2684.556589300579</v>
       </c>
       <c r="V23" t="n">
-        <v>2089.640832364753</v>
+        <v>2684.556589300579</v>
       </c>
       <c r="W23" t="n">
-        <v>2039.105905673342</v>
+        <v>2684.556589300579</v>
       </c>
       <c r="X23" t="n">
-        <v>2039.105905673342</v>
+        <v>2362.234869524475</v>
       </c>
       <c r="Y23" t="n">
-        <v>2039.105905673342</v>
+        <v>1971.641867755549</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>54.75486001740332</v>
       </c>
       <c r="K24" t="n">
-        <v>201.2093741863268</v>
+        <v>315.4518555999878</v>
       </c>
       <c r="L24" t="n">
-        <v>612.5982637177981</v>
+        <v>726.8407451314591</v>
       </c>
       <c r="M24" t="n">
-        <v>1145.469887915398</v>
+        <v>1259.712369329059</v>
       </c>
       <c r="N24" t="n">
-        <v>1707.843770399935</v>
+        <v>1822.086251813596</v>
       </c>
       <c r="O24" t="n">
-        <v>2154.67798552417</v>
+        <v>2268.920466937831</v>
       </c>
       <c r="P24" t="n">
-        <v>2496.875295682952</v>
+        <v>2611.117777096613</v>
       </c>
       <c r="Q24" t="n">
         <v>2674.064202841687</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>374.2923544070212</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="C25" t="n">
-        <v>205.2655332643926</v>
+        <v>579.5660224339408</v>
       </c>
       <c r="D25" t="n">
-        <v>54.75486001740332</v>
+        <v>579.5660224339408</v>
       </c>
       <c r="E25" t="n">
-        <v>54.75486001740332</v>
+        <v>579.5660224339408</v>
       </c>
       <c r="F25" t="n">
-        <v>54.75486001740332</v>
+        <v>431.9306472725222</v>
       </c>
       <c r="G25" t="n">
-        <v>54.75486001740332</v>
+        <v>262.9885807996378</v>
       </c>
       <c r="H25" t="n">
-        <v>54.75486001740332</v>
+        <v>190.7184256766797</v>
       </c>
       <c r="I25" t="n">
         <v>54.75486001740332</v>
@@ -6180,19 +6180,19 @@
         <v>748.5928435765694</v>
       </c>
       <c r="U25" t="n">
-        <v>459.6862495978242</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="V25" t="n">
-        <v>459.6862495978242</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="W25" t="n">
-        <v>459.6862495978242</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="X25" t="n">
-        <v>374.2923544070212</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="Y25" t="n">
-        <v>374.2923544070212</v>
+        <v>748.5928435765694</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1298.397229820406</v>
+        <v>1584.049534430908</v>
       </c>
       <c r="C26" t="n">
-        <v>927.7052139830899</v>
+        <v>1213.357518593592</v>
       </c>
       <c r="D26" t="n">
         <v>853.1507178313714</v>
@@ -6229,7 +6229,7 @@
         <v>173.4139483655701</v>
       </c>
       <c r="K26" t="n">
-        <v>473.529755335589</v>
+        <v>473.5297553355889</v>
       </c>
       <c r="L26" t="n">
         <v>897.8190300600247</v>
@@ -6250,28 +6250,28 @@
         <v>2737.743000870166</v>
       </c>
       <c r="R26" t="n">
-        <v>2684.556589300579</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="S26" t="n">
-        <v>2684.556589300579</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="T26" t="n">
-        <v>2684.556589300579</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="U26" t="n">
-        <v>2430.653390167058</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="V26" t="n">
-        <v>2430.653390167058</v>
+        <v>2405.89126195853</v>
       </c>
       <c r="W26" t="n">
-        <v>2076.582564913972</v>
+        <v>2346.249543645619</v>
       </c>
       <c r="X26" t="n">
-        <v>2076.582564913972</v>
+        <v>1971.641867755549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1685.989563145047</v>
+        <v>1971.641867755549</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>54.75486001740332</v>
       </c>
       <c r="J27" t="n">
-        <v>133.2094453233179</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="K27" t="n">
-        <v>393.9064409059025</v>
+        <v>201.2093741863268</v>
       </c>
       <c r="L27" t="n">
-        <v>805.2953304373738</v>
+        <v>612.5982637177981</v>
       </c>
       <c r="M27" t="n">
-        <v>1338.166954634973</v>
+        <v>1145.469887915398</v>
       </c>
       <c r="N27" t="n">
-        <v>1885.03267755867</v>
+        <v>1707.843770399935</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.866892682905</v>
+        <v>2154.67798552417</v>
       </c>
       <c r="P27" t="n">
-        <v>2674.064202841687</v>
+        <v>2496.875295682952</v>
       </c>
       <c r="Q27" t="n">
         <v>2674.064202841687</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>202.390235178822</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="C28" t="n">
-        <v>202.390235178822</v>
+        <v>679.3895088538031</v>
       </c>
       <c r="D28" t="n">
-        <v>202.390235178822</v>
+        <v>528.8788356068138</v>
       </c>
       <c r="E28" t="n">
-        <v>202.390235178822</v>
+        <v>528.8788356068138</v>
       </c>
       <c r="F28" t="n">
-        <v>54.75486001740332</v>
+        <v>381.2434604453952</v>
       </c>
       <c r="G28" t="n">
-        <v>54.75486001740332</v>
+        <v>212.3013939725108</v>
       </c>
       <c r="H28" t="n">
         <v>54.75486001740332</v>
@@ -6405,31 +6405,31 @@
         <v>748.5928435765694</v>
       </c>
       <c r="Q28" t="n">
-        <v>721.9005213539991</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="R28" t="n">
-        <v>721.9005213539991</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="S28" t="n">
-        <v>721.9005213539991</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="T28" t="n">
-        <v>494.0106408053479</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="U28" t="n">
-        <v>494.0106408053479</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="V28" t="n">
-        <v>494.0106408053479</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="W28" t="n">
-        <v>494.0106408053479</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="X28" t="n">
-        <v>494.0106408053479</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="Y28" t="n">
-        <v>384.2929538562804</v>
+        <v>748.5928435765694</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1919.355911641584</v>
+        <v>1270.761636997384</v>
       </c>
       <c r="C29" t="n">
-        <v>1548.663895804268</v>
+        <v>1270.761636997384</v>
       </c>
       <c r="D29" t="n">
-        <v>1188.457095042048</v>
+        <v>1270.761636997384</v>
       </c>
       <c r="E29" t="n">
-        <v>1035.775213177043</v>
+        <v>883.773722093053</v>
       </c>
       <c r="F29" t="n">
-        <v>624.3672702674054</v>
+        <v>472.3657791834158</v>
       </c>
       <c r="G29" t="n">
-        <v>206.7563511013929</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="H29" t="n">
-        <v>206.7563511013929</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="I29" t="n">
         <v>54.75486001740332</v>
       </c>
       <c r="J29" t="n">
-        <v>173.4139483655699</v>
+        <v>173.4139483655701</v>
       </c>
       <c r="K29" t="n">
-        <v>473.5297553355886</v>
+        <v>473.5297553355889</v>
       </c>
       <c r="L29" t="n">
-        <v>897.819030060024</v>
+        <v>897.8190300600245</v>
       </c>
       <c r="M29" t="n">
         <v>1385.134893839992</v>
@@ -6502,13 +6502,13 @@
         <v>2684.556589300579</v>
       </c>
       <c r="W29" t="n">
-        <v>2684.556589300579</v>
+        <v>2423.55464798102</v>
       </c>
       <c r="X29" t="n">
-        <v>2309.948913410509</v>
+        <v>2048.946972090951</v>
       </c>
       <c r="Y29" t="n">
-        <v>1919.355911641584</v>
+        <v>1658.353970322025</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>133.2094453233179</v>
       </c>
       <c r="K30" t="n">
-        <v>201.2093741863268</v>
+        <v>393.9064409059025</v>
       </c>
       <c r="L30" t="n">
-        <v>612.5982637177981</v>
+        <v>805.2953304373738</v>
       </c>
       <c r="M30" t="n">
-        <v>1145.469887915398</v>
+        <v>1338.166954634973</v>
       </c>
       <c r="N30" t="n">
         <v>1707.843770399935</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>535.2017067448583</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="C31" t="n">
-        <v>535.2017067448583</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="D31" t="n">
-        <v>384.691033497869</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="E31" t="n">
-        <v>236.2318171613042</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="F31" t="n">
-        <v>236.2318171613042</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="G31" t="n">
-        <v>67.28975068841987</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="H31" t="n">
         <v>54.75486001740332</v>
@@ -6648,25 +6648,25 @@
         <v>748.5928435765694</v>
       </c>
       <c r="S31" t="n">
-        <v>535.2017067448583</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="T31" t="n">
-        <v>535.2017067448583</v>
+        <v>520.7029630279181</v>
       </c>
       <c r="U31" t="n">
-        <v>535.2017067448583</v>
+        <v>520.7029630279181</v>
       </c>
       <c r="V31" t="n">
-        <v>535.2017067448583</v>
+        <v>265.2116993239392</v>
       </c>
       <c r="W31" t="n">
-        <v>535.2017067448583</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="X31" t="n">
-        <v>535.2017067448583</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="Y31" t="n">
-        <v>535.2017067448583</v>
+        <v>54.75486001740332</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1158.101459582035</v>
+        <v>1270.761636997384</v>
       </c>
       <c r="C32" t="n">
-        <v>787.4094437447194</v>
+        <v>1270.761636997384</v>
       </c>
       <c r="D32" t="n">
-        <v>427.2026429824988</v>
+        <v>1270.761636997384</v>
       </c>
       <c r="E32" t="n">
-        <v>206.7563511013929</v>
+        <v>883.773722093053</v>
       </c>
       <c r="F32" t="n">
-        <v>206.7563511013929</v>
+        <v>472.3657791834158</v>
       </c>
       <c r="G32" t="n">
-        <v>206.7563511013929</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="H32" t="n">
-        <v>206.7563511013929</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="I32" t="n">
         <v>54.75486001740332</v>
@@ -6703,10 +6703,10 @@
         <v>173.4139483655699</v>
       </c>
       <c r="K32" t="n">
-        <v>473.5297553355888</v>
+        <v>473.5297553355886</v>
       </c>
       <c r="L32" t="n">
-        <v>897.8190300600245</v>
+        <v>897.819030060024</v>
       </c>
       <c r="M32" t="n">
         <v>1385.134893839992</v>
@@ -6724,28 +6724,28 @@
         <v>2737.743000870166</v>
       </c>
       <c r="R32" t="n">
-        <v>2684.556589300579</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="S32" t="n">
-        <v>2509.296268720483</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="T32" t="n">
-        <v>2290.357619928687</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="U32" t="n">
-        <v>2290.357619928687</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="V32" t="n">
-        <v>2290.357619928687</v>
+        <v>2737.743000870166</v>
       </c>
       <c r="W32" t="n">
-        <v>1936.286794675602</v>
+        <v>2423.55464798102</v>
       </c>
       <c r="X32" t="n">
-        <v>1936.286794675602</v>
+        <v>2048.946972090951</v>
       </c>
       <c r="Y32" t="n">
-        <v>1545.693792906677</v>
+        <v>1658.353970322025</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1043.092099793194</v>
+        <v>979.4133017647152</v>
       </c>
       <c r="C33" t="n">
-        <v>870.3389847150111</v>
+        <v>806.6601866865324</v>
       </c>
       <c r="D33" t="n">
-        <v>722.750678073955</v>
+        <v>659.0718800454762</v>
       </c>
       <c r="E33" t="n">
-        <v>565.1411490768097</v>
+        <v>501.4623510483309</v>
       </c>
       <c r="F33" t="n">
-        <v>420.1853590934265</v>
+        <v>356.5065610649477</v>
       </c>
       <c r="G33" t="n">
-        <v>283.5555943750007</v>
+        <v>219.8767963465219</v>
       </c>
       <c r="H33" t="n">
-        <v>179.3889314367719</v>
+        <v>115.7101334082931</v>
       </c>
       <c r="I33" t="n">
-        <v>118.4336580458821</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="J33" t="n">
-        <v>181.3800837909564</v>
+        <v>54.75486001740332</v>
       </c>
       <c r="K33" t="n">
-        <v>442.0770793735409</v>
+        <v>315.4518555999878</v>
       </c>
       <c r="L33" t="n">
-        <v>853.4659689050122</v>
+        <v>726.8407451314591</v>
       </c>
       <c r="M33" t="n">
-        <v>1386.337593102612</v>
+        <v>1145.469887915398</v>
       </c>
       <c r="N33" t="n">
-        <v>1948.711475587149</v>
+        <v>1707.843770399935</v>
       </c>
       <c r="O33" t="n">
-        <v>2395.545690711384</v>
+        <v>2154.67798552417</v>
       </c>
       <c r="P33" t="n">
-        <v>2737.743000870166</v>
+        <v>2496.875295682952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2737.743000870166</v>
+        <v>2674.064202841687</v>
       </c>
       <c r="R33" t="n">
-        <v>2689.738696495519</v>
+        <v>2626.05989846704</v>
       </c>
       <c r="S33" t="n">
-        <v>2533.324839509692</v>
+        <v>2469.646041481213</v>
       </c>
       <c r="T33" t="n">
-        <v>2336.031673927899</v>
+        <v>2272.35287589942</v>
       </c>
       <c r="U33" t="n">
-        <v>2109.155720426592</v>
+        <v>2045.476922398114</v>
       </c>
       <c r="V33" t="n">
-        <v>1874.904476952193</v>
+        <v>1811.225678923714</v>
       </c>
       <c r="W33" t="n">
-        <v>1622.389985285526</v>
+        <v>1558.711187257048</v>
       </c>
       <c r="X33" t="n">
-        <v>1415.863086691104</v>
+        <v>1352.184288662625</v>
       </c>
       <c r="Y33" t="n">
-        <v>1210.134650914755</v>
+        <v>1146.455852886276</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.75486001740332</v>
+        <v>381.4205783061103</v>
       </c>
       <c r="C34" t="n">
-        <v>54.75486001740332</v>
+        <v>212.3937571634817</v>
       </c>
       <c r="D34" t="n">
-        <v>54.75486001740332</v>
+        <v>61.88308391649244</v>
       </c>
       <c r="E34" t="n">
         <v>54.75486001740332</v>
@@ -6879,31 +6879,31 @@
         <v>748.5928435765694</v>
       </c>
       <c r="Q34" t="n">
-        <v>721.9005213539991</v>
+        <v>748.5928435765694</v>
       </c>
       <c r="R34" t="n">
-        <v>575.6865125156291</v>
+        <v>602.3788347381994</v>
       </c>
       <c r="S34" t="n">
-        <v>362.295375683918</v>
+        <v>602.3788347381994</v>
       </c>
       <c r="T34" t="n">
-        <v>362.295375683918</v>
+        <v>602.3788347381994</v>
       </c>
       <c r="U34" t="n">
-        <v>310.2461237213823</v>
+        <v>602.3788347381994</v>
       </c>
       <c r="V34" t="n">
-        <v>54.75486001740332</v>
+        <v>602.3788347381994</v>
       </c>
       <c r="W34" t="n">
-        <v>54.75486001740332</v>
+        <v>602.3788347381994</v>
       </c>
       <c r="X34" t="n">
-        <v>54.75486001740332</v>
+        <v>602.3788347381994</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.75486001740332</v>
+        <v>381.4205783061103</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1393.295746688396</v>
+        <v>882.4741547863493</v>
       </c>
       <c r="C35" t="n">
-        <v>1022.60373085108</v>
+        <v>882.4741547863493</v>
       </c>
       <c r="D35" t="n">
-        <v>1022.60373085108</v>
+        <v>882.4741547863493</v>
       </c>
       <c r="E35" t="n">
-        <v>797.936701620152</v>
+        <v>882.4741547863493</v>
       </c>
       <c r="F35" t="n">
-        <v>797.936701620152</v>
+        <v>471.0662118767121</v>
       </c>
       <c r="G35" t="n">
-        <v>380.3257824541396</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="H35" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="I35" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="J35" t="n">
-        <v>108.4355830303869</v>
+        <v>172.1143810588664</v>
       </c>
       <c r="K35" t="n">
-        <v>408.5513900004057</v>
+        <v>472.2301880288852</v>
       </c>
       <c r="L35" t="n">
-        <v>832.8406647248414</v>
+        <v>896.5194627533209</v>
       </c>
       <c r="M35" t="n">
-        <v>1320.156528504809</v>
+        <v>1383.835326533289</v>
       </c>
       <c r="N35" t="n">
         <v>1799.840497441518</v>
@@ -6961,28 +6961,28 @@
         <v>2672.764635534983</v>
       </c>
       <c r="R35" t="n">
-        <v>2672.764635534983</v>
+        <v>2619.578223965397</v>
       </c>
       <c r="S35" t="n">
-        <v>2672.764635534983</v>
+        <v>2444.317903385301</v>
       </c>
       <c r="T35" t="n">
-        <v>2453.825986743187</v>
+        <v>2225.379254593505</v>
       </c>
       <c r="U35" t="n">
-        <v>2453.825986743187</v>
+        <v>1971.476055459983</v>
       </c>
       <c r="V35" t="n">
-        <v>2121.974247831551</v>
+        <v>1639.624316548348</v>
       </c>
       <c r="W35" t="n">
-        <v>1767.903422578466</v>
+        <v>1285.553491295262</v>
       </c>
       <c r="X35" t="n">
-        <v>1393.295746688396</v>
+        <v>910.945815405192</v>
       </c>
       <c r="Y35" t="n">
-        <v>1393.295746688396</v>
+        <v>882.4741547863493</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>978.1137344580108</v>
+        <v>978.113734458012</v>
       </c>
       <c r="C36" t="n">
-        <v>805.3606193798287</v>
+        <v>805.360619379829</v>
       </c>
       <c r="D36" t="n">
-        <v>657.7723127387725</v>
+        <v>657.7723127387728</v>
       </c>
       <c r="E36" t="n">
-        <v>500.1627837416272</v>
+        <v>500.1627837416274</v>
       </c>
       <c r="F36" t="n">
-        <v>355.2069937582441</v>
+        <v>355.2069937582444</v>
       </c>
       <c r="G36" t="n">
-        <v>218.5772290398183</v>
+        <v>218.5772290398185</v>
       </c>
       <c r="H36" t="n">
-        <v>114.4105661015894</v>
+        <v>114.4105661015897</v>
       </c>
       <c r="I36" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="J36" t="n">
-        <v>131.9098780166143</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="K36" t="n">
-        <v>392.6068735991988</v>
+        <v>314.1522882932842</v>
       </c>
       <c r="L36" t="n">
-        <v>803.9957631306702</v>
+        <v>725.5411778247556</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.86738732827</v>
+        <v>1258.412802022355</v>
       </c>
       <c r="N36" t="n">
-        <v>1706.54420309323</v>
+        <v>1820.786684506892</v>
       </c>
       <c r="O36" t="n">
-        <v>2153.378418217465</v>
+        <v>2267.620899631127</v>
       </c>
       <c r="P36" t="n">
-        <v>2495.575728376247</v>
+        <v>2609.818209789909</v>
       </c>
       <c r="Q36" t="n">
         <v>2672.764635534983</v>
       </c>
       <c r="R36" t="n">
-        <v>2624.760331160335</v>
+        <v>2624.760331160336</v>
       </c>
       <c r="S36" t="n">
-        <v>2468.346474174509</v>
+        <v>2468.34647417451</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.053308592715</v>
+        <v>2271.053308592717</v>
       </c>
       <c r="U36" t="n">
-        <v>2044.177355091409</v>
+        <v>2044.17735509141</v>
       </c>
       <c r="V36" t="n">
-        <v>1809.92611161701</v>
+        <v>1809.926111617011</v>
       </c>
       <c r="W36" t="n">
-        <v>1557.411619950343</v>
+        <v>1557.411619950344</v>
       </c>
       <c r="X36" t="n">
-        <v>1350.884721355921</v>
+        <v>1350.884721355922</v>
       </c>
       <c r="Y36" t="n">
-        <v>1145.156285579571</v>
+        <v>1145.156285579572</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>346.4970646602743</v>
+        <v>229.8862693812549</v>
       </c>
       <c r="C37" t="n">
-        <v>346.4970646602743</v>
+        <v>229.8862693812549</v>
       </c>
       <c r="D37" t="n">
-        <v>195.986391413285</v>
+        <v>229.8862693812549</v>
       </c>
       <c r="E37" t="n">
-        <v>195.986391413285</v>
+        <v>211.0018266658072</v>
       </c>
       <c r="F37" t="n">
-        <v>97.70475352456845</v>
+        <v>211.0018266658072</v>
       </c>
       <c r="G37" t="n">
-        <v>97.70475352456845</v>
+        <v>211.0018266658072</v>
       </c>
       <c r="H37" t="n">
-        <v>97.70475352456845</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.70475352456845</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="J37" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="K37" t="n">
         <v>112.0898249770327</v>
@@ -7116,31 +7116,31 @@
         <v>747.2932762698658</v>
       </c>
       <c r="Q37" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="R37" t="n">
-        <v>574.3869452089256</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="S37" t="n">
-        <v>574.3869452089256</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="T37" t="n">
-        <v>346.4970646602743</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="U37" t="n">
-        <v>346.4970646602743</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="V37" t="n">
-        <v>346.4970646602743</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="W37" t="n">
-        <v>346.4970646602743</v>
+        <v>458.3108753734865</v>
       </c>
       <c r="X37" t="n">
-        <v>346.4970646602743</v>
+        <v>229.8862693812549</v>
       </c>
       <c r="Y37" t="n">
-        <v>346.4970646602743</v>
+        <v>229.8862693812549</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.194834493039</v>
+        <v>841.758227714028</v>
       </c>
       <c r="C38" t="n">
-        <v>1307.502818655723</v>
+        <v>471.0662118767121</v>
       </c>
       <c r="D38" t="n">
-        <v>947.2960178935023</v>
+        <v>471.0662118767121</v>
       </c>
       <c r="E38" t="n">
-        <v>560.3081029891714</v>
+        <v>471.0662118767121</v>
       </c>
       <c r="F38" t="n">
-        <v>148.9001600795341</v>
+        <v>471.0662118767121</v>
       </c>
       <c r="G38" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="H38" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="I38" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="J38" t="n">
-        <v>108.4355830303869</v>
+        <v>172.1143810588664</v>
       </c>
       <c r="K38" t="n">
-        <v>408.5513900004057</v>
+        <v>472.2301880288852</v>
       </c>
       <c r="L38" t="n">
-        <v>832.8406647248414</v>
+        <v>896.5194627533209</v>
       </c>
       <c r="M38" t="n">
-        <v>1320.156528504809</v>
+        <v>1383.835326533289</v>
       </c>
       <c r="N38" t="n">
-        <v>1799.840497441518</v>
+        <v>1863.519295469997</v>
       </c>
       <c r="O38" t="n">
-        <v>2206.664115709737</v>
+        <v>2270.342913738216</v>
       </c>
       <c r="P38" t="n">
         <v>2516.9398685366</v>
@@ -7198,28 +7198,28 @@
         <v>2672.764635534983</v>
       </c>
       <c r="R38" t="n">
-        <v>2619.578223965396</v>
+        <v>2619.578223965397</v>
       </c>
       <c r="S38" t="n">
-        <v>2619.578223965396</v>
+        <v>2467.393086622981</v>
       </c>
       <c r="T38" t="n">
-        <v>2400.6395751736</v>
+        <v>2248.454437831186</v>
       </c>
       <c r="U38" t="n">
-        <v>2400.6395751736</v>
+        <v>1994.551238697665</v>
       </c>
       <c r="V38" t="n">
-        <v>2068.787836261964</v>
+        <v>1994.551238697665</v>
       </c>
       <c r="W38" t="n">
-        <v>2068.787836261964</v>
+        <v>1994.551238697665</v>
       </c>
       <c r="X38" t="n">
-        <v>2068.787836261964</v>
+        <v>1619.943562807594</v>
       </c>
       <c r="Y38" t="n">
-        <v>1678.194834493039</v>
+        <v>1229.350561038669</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>978.1137344580108</v>
+        <v>978.1137344580115</v>
       </c>
       <c r="C39" t="n">
-        <v>805.360619379828</v>
+        <v>805.3606193798287</v>
       </c>
       <c r="D39" t="n">
-        <v>657.7723127387719</v>
+        <v>657.7723127387726</v>
       </c>
       <c r="E39" t="n">
-        <v>500.1627837416266</v>
+        <v>500.1627837416273</v>
       </c>
       <c r="F39" t="n">
-        <v>355.2069937582435</v>
+        <v>355.2069937582442</v>
       </c>
       <c r="G39" t="n">
-        <v>218.5772290398176</v>
+        <v>218.5772290398183</v>
       </c>
       <c r="H39" t="n">
-        <v>114.4105661015888</v>
+        <v>114.4105661015894</v>
       </c>
       <c r="I39" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="J39" t="n">
         <v>131.9098780166143</v>
@@ -7265,40 +7265,40 @@
         <v>1336.86738732827</v>
       </c>
       <c r="N39" t="n">
-        <v>1899.241269812807</v>
+        <v>1706.544203093231</v>
       </c>
       <c r="O39" t="n">
-        <v>2346.075484937042</v>
+        <v>2153.378418217466</v>
       </c>
       <c r="P39" t="n">
-        <v>2672.764635534983</v>
+        <v>2495.575728376248</v>
       </c>
       <c r="Q39" t="n">
         <v>2672.764635534983</v>
       </c>
       <c r="R39" t="n">
-        <v>2624.760331160335</v>
+        <v>2624.760331160336</v>
       </c>
       <c r="S39" t="n">
         <v>2468.346474174509</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.053308592715</v>
+        <v>2271.053308592716</v>
       </c>
       <c r="U39" t="n">
-        <v>2044.177355091409</v>
+        <v>2044.17735509141</v>
       </c>
       <c r="V39" t="n">
-        <v>1809.92611161701</v>
+        <v>1809.926111617011</v>
       </c>
       <c r="W39" t="n">
-        <v>1557.411619950343</v>
+        <v>1557.411619950344</v>
       </c>
       <c r="X39" t="n">
         <v>1350.884721355921</v>
       </c>
       <c r="Y39" t="n">
-        <v>1145.156285579571</v>
+        <v>1145.156285579572</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.4821138533283</v>
+        <v>458.3108753734865</v>
       </c>
       <c r="C40" t="n">
-        <v>53.45529271069965</v>
+        <v>370.0327343450027</v>
       </c>
       <c r="D40" t="n">
-        <v>53.45529271069965</v>
+        <v>370.0327343450027</v>
       </c>
       <c r="E40" t="n">
-        <v>53.45529271069965</v>
+        <v>370.0327343450027</v>
       </c>
       <c r="F40" t="n">
-        <v>53.45529271069965</v>
+        <v>222.397359183584</v>
       </c>
       <c r="G40" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="H40" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="I40" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="J40" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069967</v>
       </c>
       <c r="K40" t="n">
         <v>112.0898249770327</v>
@@ -7359,25 +7359,25 @@
         <v>747.2932762698658</v>
       </c>
       <c r="S40" t="n">
-        <v>533.9021394381547</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="T40" t="n">
-        <v>533.9021394381547</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="U40" t="n">
-        <v>533.9021394381547</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="V40" t="n">
-        <v>511.4645147497076</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="W40" t="n">
-        <v>222.4821138533283</v>
+        <v>458.3108753734865</v>
       </c>
       <c r="X40" t="n">
-        <v>222.4821138533283</v>
+        <v>458.3108753734865</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4821138533283</v>
+        <v>458.3108753734865</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1421.46356077467</v>
+        <v>784.354109310236</v>
       </c>
       <c r="C41" t="n">
-        <v>1421.46356077467</v>
+        <v>413.6620934729203</v>
       </c>
       <c r="D41" t="n">
-        <v>1421.46356077467</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="E41" t="n">
-        <v>1034.475645870339</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="F41" t="n">
-        <v>623.0677029607017</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="G41" t="n">
-        <v>205.4567837946892</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="H41" t="n">
-        <v>205.4567837946892</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="I41" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J41" t="n">
-        <v>172.1143810588664</v>
+        <v>108.4355830303869</v>
       </c>
       <c r="K41" t="n">
-        <v>472.2301880288852</v>
+        <v>408.5513900004057</v>
       </c>
       <c r="L41" t="n">
-        <v>896.5194627533209</v>
+        <v>832.8406647248414</v>
       </c>
       <c r="M41" t="n">
-        <v>1383.835326533289</v>
+        <v>1320.156528504809</v>
       </c>
       <c r="N41" t="n">
-        <v>1863.519295469997</v>
+        <v>1799.840497441518</v>
       </c>
       <c r="O41" t="n">
-        <v>2270.342913738216</v>
+        <v>2206.664115709737</v>
       </c>
       <c r="P41" t="n">
         <v>2516.9398685366</v>
@@ -7438,25 +7438,25 @@
         <v>2619.578223965396</v>
       </c>
       <c r="S41" t="n">
-        <v>2481.993800829461</v>
+        <v>2444.3179033853</v>
       </c>
       <c r="T41" t="n">
-        <v>2481.993800829461</v>
+        <v>2225.379254593505</v>
       </c>
       <c r="U41" t="n">
-        <v>2481.993800829461</v>
+        <v>2225.379254593505</v>
       </c>
       <c r="V41" t="n">
-        <v>2150.142061917825</v>
+        <v>1893.527515681869</v>
       </c>
       <c r="W41" t="n">
-        <v>1796.07123666474</v>
+        <v>1562.539444403802</v>
       </c>
       <c r="X41" t="n">
-        <v>1421.46356077467</v>
+        <v>1562.539444403802</v>
       </c>
       <c r="Y41" t="n">
-        <v>1421.46356077467</v>
+        <v>1171.946442634877</v>
       </c>
     </row>
     <row r="42">
@@ -7472,13 +7472,13 @@
         <v>805.3606193798287</v>
       </c>
       <c r="D42" t="n">
-        <v>657.7723127387725</v>
+        <v>657.7723127387726</v>
       </c>
       <c r="E42" t="n">
-        <v>500.1627837416272</v>
+        <v>500.1627837416273</v>
       </c>
       <c r="F42" t="n">
-        <v>355.2069937582441</v>
+        <v>355.2069937582442</v>
       </c>
       <c r="G42" t="n">
         <v>218.5772290398183</v>
@@ -7487,19 +7487,19 @@
         <v>114.4105661015894</v>
       </c>
       <c r="I42" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J42" t="n">
         <v>131.9098780166143</v>
       </c>
       <c r="K42" t="n">
-        <v>199.9098068796229</v>
+        <v>392.6068735991988</v>
       </c>
       <c r="L42" t="n">
-        <v>611.2986964110942</v>
+        <v>803.9957631306702</v>
       </c>
       <c r="M42" t="n">
-        <v>1144.170320608694</v>
+        <v>1336.86738732827</v>
       </c>
       <c r="N42" t="n">
         <v>1706.544203093231</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>526.3350198377767</v>
+        <v>565.3905575924074</v>
       </c>
       <c r="C43" t="n">
-        <v>526.3350198377767</v>
+        <v>396.3637364497788</v>
       </c>
       <c r="D43" t="n">
-        <v>526.3350198377767</v>
+        <v>396.3637364497788</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8758035012119</v>
+        <v>379.9438931386915</v>
       </c>
       <c r="F43" t="n">
-        <v>377.8758035012119</v>
+        <v>379.9438931386915</v>
       </c>
       <c r="G43" t="n">
-        <v>208.9337370283276</v>
+        <v>211.0018266658072</v>
       </c>
       <c r="H43" t="n">
-        <v>208.9337370283276</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="I43" t="n">
-        <v>72.97017136905117</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="J43" t="n">
-        <v>53.45529271069965</v>
+        <v>53.45529271069966</v>
       </c>
       <c r="K43" t="n">
         <v>112.0898249770327</v>
@@ -7614,7 +7614,7 @@
         <v>747.2932762698658</v>
       </c>
       <c r="Y43" t="n">
-        <v>526.3350198377767</v>
+        <v>747.2932762698658</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2064.790611148376</v>
+        <v>1504.492140087058</v>
       </c>
       <c r="C44" t="n">
-        <v>1748.33405051811</v>
+        <v>1504.492140087058</v>
       </c>
       <c r="D44" t="n">
-        <v>1748.33405051811</v>
+        <v>1504.492140087058</v>
       </c>
       <c r="E44" t="n">
         <v>1361.346135613779</v>
@@ -7654,10 +7654,10 @@
         <v>472.2301880288852</v>
       </c>
       <c r="L44" t="n">
-        <v>896.5194627533209</v>
+        <v>832.8406647248414</v>
       </c>
       <c r="M44" t="n">
-        <v>1383.835326533289</v>
+        <v>1320.156528504809</v>
       </c>
       <c r="N44" t="n">
         <v>1799.840497441518</v>
@@ -7672,28 +7672,28 @@
         <v>2672.764635534983</v>
       </c>
       <c r="R44" t="n">
-        <v>2672.764635534983</v>
+        <v>2619.578223965396</v>
       </c>
       <c r="S44" t="n">
-        <v>2672.764635534983</v>
+        <v>2444.3179033853</v>
       </c>
       <c r="T44" t="n">
-        <v>2672.764635534983</v>
+        <v>2444.3179033853</v>
       </c>
       <c r="U44" t="n">
-        <v>2418.861436401462</v>
+        <v>2190.414704251779</v>
       </c>
       <c r="V44" t="n">
-        <v>2418.861436401462</v>
+        <v>1858.562965340143</v>
       </c>
       <c r="W44" t="n">
-        <v>2064.790611148376</v>
+        <v>1504.492140087058</v>
       </c>
       <c r="X44" t="n">
-        <v>2064.790611148376</v>
+        <v>1504.492140087058</v>
       </c>
       <c r="Y44" t="n">
-        <v>2064.790611148376</v>
+        <v>1504.492140087058</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>978.1137344580115</v>
+        <v>978.113734458012</v>
       </c>
       <c r="C45" t="n">
-        <v>805.3606193798286</v>
+        <v>805.3606193798292</v>
       </c>
       <c r="D45" t="n">
-        <v>657.7723127387724</v>
+        <v>657.7723127387731</v>
       </c>
       <c r="E45" t="n">
-        <v>500.162783741627</v>
+        <v>500.1627837416278</v>
       </c>
       <c r="F45" t="n">
-        <v>355.206993758244</v>
+        <v>355.2069937582446</v>
       </c>
       <c r="G45" t="n">
-        <v>218.5772290398181</v>
+        <v>218.5772290398186</v>
       </c>
       <c r="H45" t="n">
         <v>114.4105661015894</v>
@@ -7730,22 +7730,22 @@
         <v>131.9098780166143</v>
       </c>
       <c r="K45" t="n">
-        <v>199.9098068796229</v>
+        <v>392.6068735991988</v>
       </c>
       <c r="L45" t="n">
-        <v>611.2986964110942</v>
+        <v>803.9957631306702</v>
       </c>
       <c r="M45" t="n">
-        <v>1144.170320608694</v>
+        <v>1336.86738732827</v>
       </c>
       <c r="N45" t="n">
-        <v>1706.544203093231</v>
+        <v>1899.241269812807</v>
       </c>
       <c r="O45" t="n">
-        <v>2153.378418217466</v>
+        <v>2346.075484937042</v>
       </c>
       <c r="P45" t="n">
-        <v>2495.575728376248</v>
+        <v>2672.764635534983</v>
       </c>
       <c r="Q45" t="n">
         <v>2672.764635534983</v>
@@ -7757,16 +7757,16 @@
         <v>2468.34647417451</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.053308592716</v>
+        <v>2271.053308592717</v>
       </c>
       <c r="U45" t="n">
-        <v>2044.17735509141</v>
+        <v>2044.177355091411</v>
       </c>
       <c r="V45" t="n">
         <v>1809.926111617011</v>
       </c>
       <c r="W45" t="n">
-        <v>1557.411619950344</v>
+        <v>1557.411619950345</v>
       </c>
       <c r="X45" t="n">
         <v>1350.884721355922</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.711959172171</v>
+        <v>370.0327343450027</v>
       </c>
       <c r="C46" t="n">
-        <v>142.711959172171</v>
+        <v>370.0327343450027</v>
       </c>
       <c r="D46" t="n">
-        <v>142.711959172171</v>
+        <v>370.0327343450027</v>
       </c>
       <c r="E46" t="n">
-        <v>142.711959172171</v>
+        <v>370.0327343450027</v>
       </c>
       <c r="F46" t="n">
-        <v>142.711959172171</v>
+        <v>222.397359183584</v>
       </c>
       <c r="G46" t="n">
         <v>53.45529271069966</v>
@@ -7827,31 +7827,31 @@
         <v>747.2932762698658</v>
       </c>
       <c r="Q46" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="R46" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="S46" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="T46" t="n">
-        <v>720.6009540472955</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="U46" t="n">
-        <v>431.6943600685503</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="V46" t="n">
-        <v>431.6943600685503</v>
+        <v>747.2932762698658</v>
       </c>
       <c r="W46" t="n">
-        <v>142.711959172171</v>
+        <v>458.3108753734865</v>
       </c>
       <c r="X46" t="n">
-        <v>142.711959172171</v>
+        <v>458.3108753734865</v>
       </c>
       <c r="Y46" t="n">
-        <v>142.711959172171</v>
+        <v>458.3108753734865</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>224.7826349724054</v>
+        <v>229.442370172687</v>
       </c>
       <c r="L2" t="n">
         <v>244.7270199995685</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5875773965909</v>
+        <v>239.4423428004218</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066762</v>
+        <v>233.8727672102255</v>
       </c>
       <c r="O2" t="n">
-        <v>239.2005215399755</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P2" t="n">
-        <v>240.3069362652187</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8057,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>149.2501684038309</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>149.9452856892083</v>
       </c>
       <c r="M3" t="n">
         <v>153.4354484777988</v>
       </c>
       <c r="N3" t="n">
-        <v>142.9129346850809</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>145.4798126328029</v>
+        <v>137.4116293372088</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.736802596133</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8142,19 +8142,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L4" t="n">
-        <v>146.3673247780382</v>
+        <v>139.6451103377855</v>
       </c>
       <c r="M4" t="n">
         <v>150.3074047527458</v>
       </c>
       <c r="N4" t="n">
-        <v>138.7479787158644</v>
+        <v>139.3481712574333</v>
       </c>
       <c r="O4" t="n">
         <v>149.8498903943776</v>
       </c>
       <c r="P4" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q4" t="n">
         <v>67.95667671286152</v>
@@ -8221,22 +8221,22 @@
         <v>229.442370172687</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0672847992869</v>
+        <v>244.7270199995685</v>
       </c>
       <c r="M5" t="n">
-        <v>239.4423428004218</v>
+        <v>238.8421502588529</v>
       </c>
       <c r="N5" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2005215399755</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>240.3069362652187</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>149.2501684038309</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>149.9452856892083</v>
       </c>
       <c r="M6" t="n">
-        <v>153.4354484777988</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>142.9129346850809</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>153.2859111955953</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>145.4798126328029</v>
+        <v>137.4116293372088</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>151.3369951377019</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8379,10 +8379,10 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L7" t="n">
-        <v>146.3673247780382</v>
+        <v>139.6451103377855</v>
       </c>
       <c r="M7" t="n">
-        <v>143.5851903124931</v>
+        <v>150.3074047527458</v>
       </c>
       <c r="N7" t="n">
         <v>139.3481712574333</v>
@@ -8455,25 +8455,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>224.7826349724054</v>
+        <v>229.442370172687</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>244.7270199995685</v>
       </c>
       <c r="M8" t="n">
-        <v>224.5875773965909</v>
+        <v>239.4423428004218</v>
       </c>
       <c r="N8" t="n">
-        <v>238.5325024105071</v>
+        <v>237.9323098689381</v>
       </c>
       <c r="O8" t="n">
-        <v>239.2005215399755</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P8" t="n">
-        <v>240.3069362652187</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8534,10 +8534,10 @@
         <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>148.649975862262</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>149.9452856892083</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
         <v>153.4354484777988</v>
@@ -8546,10 +8546,10 @@
         <v>142.9129346850809</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>153.8861037371642</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>144.879620091234</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8707,10 +8707,10 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>270.348638287757</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>156.4855720757154</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8771,7 +8771,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>259.3790388558694</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8783,13 +8783,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>214.9733103108531</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.50168514555045</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8944,10 +8944,10 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>270.348638287757</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>156.4855720757154</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9008,7 +9008,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>80.40034475613683</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9020,7 +9020,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>214.9733103108531</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
@@ -9181,10 +9181,10 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
-        <v>334.6706564983419</v>
+        <v>270.348638287756</v>
       </c>
       <c r="Q17" t="n">
-        <v>156.4855720757159</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>111.5384615683713</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9418,7 +9418,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
-        <v>270.348638287756</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9491,16 +9491,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>303.8725675803502</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>315.5364717483217</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.50168514555045</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9719,7 +9719,7 @@
         <v>51.88762088946496</v>
       </c>
       <c r="K24" t="n">
-        <v>159.6474006206969</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>103.083933372898</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>51.88762088946496</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>159.6474006206969</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>482.8512616800831</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.50168514555045</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10193,7 +10193,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>80.40034475613666</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>303.8725675803506</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>115.4698691168127</v>
+        <v>51.88762088946496</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10436,7 +10436,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>484.3332662999999</v>
+        <v>368.936820427615</v>
       </c>
       <c r="N33" t="n">
         <v>498.5160693172957</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.50168514555045</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>111.5384615683713</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10597,7 +10597,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N35" t="n">
-        <v>454.8408013884635</v>
+        <v>390.518783177879</v>
       </c>
       <c r="O35" t="n">
         <v>396.0321885132552</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>51.88762088946496</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>303.8725675803497</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>103.083933372898</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>111.5384615683713</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
         <v>337.1112290740114</v>
@@ -10840,7 +10840,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>270.348638287757</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10913,16 +10913,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>303.8725675803502</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>315.5364717483212</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.50168514555045</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>111.5384615683713</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11077,7 +11077,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
-        <v>270.348638287756</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11141,7 +11141,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>80.40034475613641</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>303.8725675803502</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11302,13 +11302,13 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>434.3676631324684</v>
+        <v>370.045644921883</v>
       </c>
       <c r="M44" t="n">
         <v>467.4940748325458</v>
       </c>
       <c r="N44" t="n">
-        <v>390.5187831778781</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
         <v>396.0321885132552</v>
@@ -11378,7 +11378,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>80.40034475613641</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11393,10 +11393,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>315.5364717483217</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>39.50168514555045</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>250.4339454656584</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3641671421861</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.697832892326687</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -23430,10 +23430,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>19.30692119047791</v>
+        <v>167.2526458081554</v>
       </c>
       <c r="H13" t="n">
-        <v>155.9710686155564</v>
+        <v>100.6015943535175</v>
       </c>
       <c r="I13" t="n">
         <v>134.6039300026836</v>
@@ -23466,13 +23466,13 @@
         <v>144.7518687499863</v>
       </c>
       <c r="S13" t="n">
-        <v>211.257225463394</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.6109817431647</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.0175280389577</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.6017848460055</v>
       </c>
       <c r="I14" t="n">
         <v>150.4814761731497</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.65454745389098</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>173.5077173742953</v>
@@ -23557,13 +23557,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>171.635183820774</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.53452909087821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
         <v>146.9746241731992</v>
@@ -23667,7 +23667,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.2526458081554</v>
       </c>
       <c r="H16" t="n">
         <v>155.9710686155564</v>
@@ -23709,13 +23709,13 @@
         <v>225.6109817431647</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0175280389577</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>138.1468522697379</v>
       </c>
       <c r="W16" t="n">
-        <v>95.53487697719976</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>267.3259029221373</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>413.4348099743523</v>
       </c>
       <c r="H17" t="n">
-        <v>323.6017848460055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>150.4814761731497</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>52.65454745389098</v>
       </c>
       <c r="S17" t="n">
         <v>173.5077173742953</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3641671421861</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>46.99889552498274</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>26.42539900034453</v>
       </c>
       <c r="R19" t="n">
         <v>144.7518687499863</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>211.257225463394</v>
       </c>
       <c r="T19" t="n">
         <v>225.6109817431647</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0175280389577</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>22.46804567487152</v>
+        <v>138.1468522697379</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>405.4274132261916</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4348099743523</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>216.7492623038777</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3641671421861</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>148.1411497576161</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.94735937457992</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.2526458081554</v>
       </c>
       <c r="H22" t="n">
         <v>155.9710686155564</v>
       </c>
       <c r="I22" t="n">
-        <v>134.6039300026836</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>43.80696620573011</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>26.42539900034453</v>
       </c>
       <c r="R22" t="n">
         <v>144.7518687499863</v>
@@ -24192,10 +24192,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>149.0929656264261</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.4348099743523</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.6017848460055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>150.4814761731497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.65454745389098</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>173.5077173742953</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.7492623038777</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3641671421861</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>300.5005395760573</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>51.76309655282586</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2526458081554</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>155.9710686155564</v>
+        <v>84.42361504382794</v>
       </c>
       <c r="I25" t="n">
-        <v>134.6039300026836</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>43.80696620573011</v>
@@ -24420,7 +24420,7 @@
         <v>225.6109817431647</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0175280389577</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24429,7 +24429,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>141.6004036934143</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>282.795781564397</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>52.65454745389098</v>
       </c>
       <c r="S26" t="n">
         <v>173.5077173742953</v>
@@ -24499,19 +24499,19 @@
         <v>216.7492623038777</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3641671421861</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>291.4848158707731</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>98.82525155566373</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2526458081554</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9710686155564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.6039300026836</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>26.42539900034453</v>
       </c>
       <c r="R28" t="n">
         <v>144.7518687499863</v>
@@ -24654,7 +24654,7 @@
         <v>211.257225463394</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6109817431647</v>
       </c>
       <c r="U28" t="n">
         <v>286.0175280389577</v>
@@ -24669,7 +24669,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.1281637881914</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>231.9629727089326</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>323.6017848460055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>150.4814761731497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>92.13819509419153</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2526458081554</v>
       </c>
       <c r="H31" t="n">
-        <v>143.5615268512501</v>
+        <v>155.9710686155564</v>
       </c>
       <c r="I31" t="n">
         <v>134.6039300026836</v>
@@ -24888,19 +24888,19 @@
         <v>144.7518687499863</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.257225463394</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6109817431647</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.0175280389577</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>77.74030597394503</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>164.8762067929926</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4348099743523</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.6017848460055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>150.4814761731497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>52.65454745389098</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>173.5077173742953</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.7492623038777</v>
       </c>
       <c r="U32" t="n">
         <v>251.3641671421861</v>
@@ -24979,10 +24979,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>39.48364764030072</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>139.9176825131009</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>26.42539900034453</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.257225463394</v>
       </c>
       <c r="T34" t="n">
         <v>225.6109817431647</v>
       </c>
       <c r="U34" t="n">
-        <v>234.4887685960474</v>
+        <v>286.0175280389577</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>160.6976768166689</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.6017848460055</v>
       </c>
       <c r="I35" t="n">
         <v>150.4814761731497</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.65454745389098</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>173.5077173742953</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3641671421861</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>358.5001277385816</v>
       </c>
     </row>
     <row r="36">
@@ -25317,25 +25317,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>128.2790258849059</v>
       </c>
       <c r="F37" t="n">
-        <v>48.86019989997507</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.2526458081554</v>
       </c>
       <c r="H37" t="n">
-        <v>155.9710686155564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.6039300026836</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>43.80696620573011</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>26.42539900034453</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>144.7518687499863</v>
       </c>
       <c r="S37" t="n">
         <v>211.257225463394</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6109817431647</v>
       </c>
       <c r="U37" t="n">
         <v>286.0175280389577</v>
@@ -25374,10 +25374,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>318.9443912792062</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.6017848460055</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>173.5077173742953</v>
+        <v>22.84443140530385</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3641671421861</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>79.94119331300334</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25560,10 +25560,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2526458081554</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>155.9710686155564</v>
@@ -25599,7 +25599,7 @@
         <v>144.7518687499863</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>211.257225463394</v>
       </c>
       <c r="T40" t="n">
         <v>225.6109817431647</v>
@@ -25608,7 +25608,7 @@
         <v>286.0175280389577</v>
       </c>
       <c r="V40" t="n">
-        <v>230.7231026253765</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.4348099743523</v>
       </c>
       <c r="H41" t="n">
         <v>323.6017848460055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>150.4814761731497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.29913846971996</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.7492623038777</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3641671421861</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>22.85192643526864</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>130.7189792952227</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
@@ -25803,13 +25803,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>155.9710686155564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.6039300026836</v>
       </c>
       <c r="J43" t="n">
-        <v>24.4872363339621</v>
+        <v>43.80696620573011</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>53.69310065497882</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.4034913267415</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.65454745389098</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>173.5077173742953</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.7492623038777</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>92.68833187248481</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -26034,10 +26034,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>78.88854601129881</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>155.9710686155564</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>26.42539900034453</v>
       </c>
       <c r="R46" t="n">
         <v>144.7518687499863</v>
@@ -26079,7 +26079,7 @@
         <v>225.6109817431647</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0175280389577</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654302.8130633879</v>
+        <v>654302.8130633878</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654302.813063388</v>
+        <v>654302.8130633878</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654302.813063388</v>
+        <v>654302.8130633879</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654302.8130633879</v>
+        <v>654302.8130633878</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654302.8130633878</v>
+        <v>654302.8130633879</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>630787.5416765756</v>
+        <v>630787.5416765757</v>
       </c>
       <c r="C2" t="n">
         <v>630787.5416765754</v>
       </c>
       <c r="D2" t="n">
-        <v>630787.5416765754</v>
+        <v>630787.5416765756</v>
       </c>
       <c r="E2" t="n">
-        <v>441310.8759858176</v>
+        <v>441310.8759858177</v>
       </c>
       <c r="F2" t="n">
         <v>441310.8759858176</v>
@@ -26334,28 +26334,28 @@
         <v>441310.8759858176</v>
       </c>
       <c r="I2" t="n">
-        <v>445199.9375856908</v>
+        <v>445199.9375856906</v>
       </c>
       <c r="J2" t="n">
         <v>445199.9375856908</v>
       </c>
       <c r="K2" t="n">
-        <v>445199.9375856908</v>
+        <v>445199.9375856909</v>
       </c>
       <c r="L2" t="n">
         <v>445199.9375856908</v>
       </c>
       <c r="M2" t="n">
-        <v>441310.8759858175</v>
+        <v>441310.8759858176</v>
       </c>
       <c r="N2" t="n">
-        <v>441310.8759858175</v>
+        <v>441310.8759858177</v>
       </c>
       <c r="O2" t="n">
-        <v>441310.8759858175</v>
+        <v>441310.8759858176</v>
       </c>
       <c r="P2" t="n">
-        <v>441310.8759858175</v>
+        <v>441310.8759858176</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4978.173546428035</v>
+        <v>4978.173546428031</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4319.777972074304</v>
+        <v>4319.777972074289</v>
       </c>
       <c r="J3" t="n">
-        <v>3886.660239319924</v>
+        <v>3886.660239319939</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>158765.8254620214</v>
+        <v>158765.8254620215</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>399367.5523643353</v>
+        <v>399367.5523643354</v>
       </c>
       <c r="C4" t="n">
         <v>399367.5523643354</v>
@@ -26426,16 +26426,16 @@
         <v>399367.5523643354</v>
       </c>
       <c r="E4" t="n">
-        <v>99614.66523931082</v>
+        <v>99614.66523931079</v>
       </c>
       <c r="F4" t="n">
-        <v>99614.66523931082</v>
+        <v>99614.66523931079</v>
       </c>
       <c r="G4" t="n">
-        <v>99614.66523931082</v>
+        <v>99614.66523931079</v>
       </c>
       <c r="H4" t="n">
-        <v>99614.66523931078</v>
+        <v>99614.66523931079</v>
       </c>
       <c r="I4" t="n">
         <v>101030.3542669149</v>
@@ -26450,16 +26450,16 @@
         <v>101030.3542669149</v>
       </c>
       <c r="M4" t="n">
-        <v>99614.66523931078</v>
+        <v>99614.66523931082</v>
       </c>
       <c r="N4" t="n">
+        <v>99614.66523931082</v>
+      </c>
+      <c r="O4" t="n">
         <v>99614.66523931079</v>
       </c>
-      <c r="O4" t="n">
-        <v>99614.66523931078</v>
-      </c>
       <c r="P4" t="n">
-        <v>99614.66523931081</v>
+        <v>99614.66523931079</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>34530.76973655292</v>
       </c>
       <c r="E5" t="n">
-        <v>48326.08576533691</v>
+        <v>48326.0857653369</v>
       </c>
       <c r="F5" t="n">
-        <v>48326.08576533691</v>
+        <v>48326.0857653369</v>
       </c>
       <c r="G5" t="n">
-        <v>48326.08576533691</v>
+        <v>48326.0857653369</v>
       </c>
       <c r="H5" t="n">
         <v>48326.0857653369</v>
@@ -26502,13 +26502,13 @@
         <v>49313.75691843168</v>
       </c>
       <c r="M5" t="n">
-        <v>48326.08576533689</v>
+        <v>48326.08576533691</v>
       </c>
       <c r="N5" t="n">
-        <v>48326.08576533689</v>
+        <v>48326.08576533691</v>
       </c>
       <c r="O5" t="n">
-        <v>48326.08576533689</v>
+        <v>48326.0857653369</v>
       </c>
       <c r="P5" t="n">
         <v>48326.0857653369</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191911.0460292593</v>
+        <v>191911.0460292594</v>
       </c>
       <c r="C6" t="n">
         <v>196889.2195756871</v>
       </c>
       <c r="D6" t="n">
-        <v>196889.2195756871</v>
+        <v>196889.2195756873</v>
       </c>
       <c r="E6" t="n">
-        <v>-185474.8661237414</v>
+        <v>-191587.0166298948</v>
       </c>
       <c r="F6" t="n">
-        <v>293370.1249811699</v>
+        <v>287257.9744750165</v>
       </c>
       <c r="G6" t="n">
-        <v>293370.1249811697</v>
+        <v>287257.9744750164</v>
       </c>
       <c r="H6" t="n">
-        <v>293370.1249811699</v>
+        <v>287257.9744750165</v>
       </c>
       <c r="I6" t="n">
-        <v>290536.04842827</v>
+        <v>284549.3515221123</v>
       </c>
       <c r="J6" t="n">
-        <v>290969.1661610243</v>
+        <v>284982.4692548667</v>
       </c>
       <c r="K6" t="n">
-        <v>294855.8264003442</v>
+        <v>288869.1294941867</v>
       </c>
       <c r="L6" t="n">
-        <v>294855.8264003443</v>
+        <v>288869.1294941867</v>
       </c>
       <c r="M6" t="n">
-        <v>134604.2995191485</v>
+        <v>128492.1490129949</v>
       </c>
       <c r="N6" t="n">
-        <v>293370.1249811698</v>
+        <v>287257.9744750165</v>
       </c>
       <c r="O6" t="n">
-        <v>293370.1249811699</v>
+        <v>287257.9744750165</v>
       </c>
       <c r="P6" t="n">
-        <v>293370.1249811698</v>
+        <v>287257.9744750165</v>
       </c>
     </row>
   </sheetData>
@@ -26798,13 +26798,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="E4" t="n">
-        <v>668.1911588837459</v>
+        <v>668.1911588837457</v>
       </c>
       <c r="F4" t="n">
-        <v>668.1911588837459</v>
+        <v>668.1911588837457</v>
       </c>
       <c r="G4" t="n">
-        <v>668.1911588837459</v>
+        <v>668.1911588837457</v>
       </c>
       <c r="H4" t="n">
         <v>668.1911588837457</v>
@@ -26822,13 +26822,13 @@
         <v>684.4357502175415</v>
       </c>
       <c r="M4" t="n">
-        <v>668.1911588837456</v>
+        <v>668.1911588837459</v>
       </c>
       <c r="N4" t="n">
-        <v>668.1911588837456</v>
+        <v>668.1911588837459</v>
       </c>
       <c r="O4" t="n">
-        <v>668.1911588837456</v>
+        <v>668.1911588837457</v>
       </c>
       <c r="P4" t="n">
         <v>668.1911588837457</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>653.3363934799149</v>
+        <v>653.3363934799148</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.24459133379577</v>
+        <v>16.24459133379571</v>
       </c>
       <c r="J4" t="n">
-        <v>14.85476540383087</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>637.0918021461187</v>
+        <v>637.0918021461192</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.3363934799149</v>
+        <v>653.3363934799148</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>361.8541589263516</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>368.2632703514565</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>394.2097861128466</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>126.9960572970461</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>191.0101863197083</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>236.6229981727135</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -27463,22 +27463,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>131.2576581708146</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>130.422154715855</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>121.1684448012114</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>95.60775011830185</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>71.64877806164074</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>79.84021435726029</v>
+        <v>81.61090239339694</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>183.5277665044377</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
@@ -27539,7 +27539,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C4" t="n">
-        <v>167.3365529312023</v>
+        <v>152.4817875273714</v>
       </c>
       <c r="D4" t="n">
         <v>149.0055665145194</v>
@@ -27551,10 +27551,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>154.8055115624138</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>146.7793066050859</v>
       </c>
       <c r="I4" t="n">
         <v>138.9037813935727</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.90593447201725</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>207.5026415575916</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -27602,7 +27602,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
-        <v>213.056282564615</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y4" t="n">
         <v>218.7486738677682</v>
@@ -27627,13 +27627,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>392.4390980767099</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1439033881534</v>
+        <v>323.2891379843225</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -27666,13 +27666,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>200.7340149709482</v>
+        <v>193.4401514904074</v>
       </c>
       <c r="T5" t="n">
-        <v>208.1103517925894</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>236.6229981727135</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -27745,7 +27745,7 @@
         <v>79.84021435726029</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>154.1068485018135</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -27754,16 +27754,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>218.8246536719608</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>191.377552240784</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.8163860147551</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27785,13 +27785,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F7" t="n">
-        <v>146.1590214098045</v>
+        <v>131.3042560059736</v>
       </c>
       <c r="G7" t="n">
         <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>148.469638955225</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
         <v>153.7585467974036</v>
@@ -27824,7 +27824,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>222.3574069614225</v>
+        <v>209.1929739077307</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
@@ -27842,7 +27842,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.8939084639373</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>344.1799325214665</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>368.2632703514565</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>392.4390980767099</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,13 +27903,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>200.7340149709482</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>208.1103517925894</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>236.6229981727135</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -27952,7 +27952,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>71.64877806164074</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>79.84021435726029</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>154.1068485018135</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>211.5730996995069</v>
+        <v>209.8024116633703</v>
       </c>
       <c r="V9" t="n">
-        <v>217.0539656358242</v>
+        <v>218.8246536719608</v>
       </c>
       <c r="W9" t="n">
-        <v>235.1345813461691</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -28022,13 +28022,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>133.0749440421102</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>153.0348235262771</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6340720089168</v>
+        <v>146.7793066050859</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
@@ -28037,7 +28037,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>64.90593447201725</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28067,13 +28067,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>271.1975049872333</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>239.7719180132473</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>271.2378114835846</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.19503020354938</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="L2" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>10.19503020354938</v>
       </c>
       <c r="O2" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="M3" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="N3" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.85476540383092</v>
+        <v>6.786582108236847</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.254572862262</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14.85476540383092</v>
+        <v>8.132550963578161</v>
       </c>
       <c r="M4" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="N4" t="n">
-        <v>14.254572862262</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="O4" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>14.85476540383092</v>
       </c>
       <c r="L5" t="n">
-        <v>10.19503020354938</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="M5" t="n">
+        <v>14.254572862262</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>14.85476540383092</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.786582108236847</v>
+      </c>
+      <c r="Q6" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="N6" t="n">
-        <v>14.85476540383092</v>
-      </c>
-      <c r="O6" t="n">
-        <v>14.254572862262</v>
-      </c>
-      <c r="P6" t="n">
-        <v>14.85476540383092</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,10 +35099,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>8.132550963578161</v>
+      </c>
+      <c r="M7" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="M7" t="n">
-        <v>8.132550963578161</v>
       </c>
       <c r="N7" t="n">
         <v>14.85476540383092</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10.19503020354938</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="N8" t="n">
-        <v>14.85476540383092</v>
+        <v>14.254572862262</v>
       </c>
       <c r="O8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>14.254572862262</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>14.85476540383092</v>
@@ -35266,10 +35266,10 @@
         <v>14.85476540383092</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>14.254572862262</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35427,10 +35427,10 @@
         <v>410.9329477456757</v>
       </c>
       <c r="P11" t="n">
-        <v>249.0878331296809</v>
+        <v>313.4098513402659</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.3987545438214</v>
+        <v>93.07673633323597</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>79.24705586456022</v>
       </c>
       <c r="K12" t="n">
-        <v>247.6654909310548</v>
+        <v>263.3302985682672</v>
       </c>
       <c r="L12" t="n">
         <v>415.544332860072</v>
@@ -35503,13 +35503,13 @@
         <v>568.0544267520579</v>
       </c>
       <c r="O12" t="n">
-        <v>451.3476920446819</v>
+        <v>256.7041903077364</v>
       </c>
       <c r="P12" t="n">
         <v>345.6538486452342</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>178.9786940997326</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35664,10 +35664,10 @@
         <v>410.9329477456757</v>
       </c>
       <c r="P14" t="n">
-        <v>249.0878331296809</v>
+        <v>313.4098513402659</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.3987545438214</v>
+        <v>93.07673633323597</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>79.24705586456022</v>
       </c>
       <c r="K15" t="n">
-        <v>68.68679683132224</v>
+        <v>263.3302985682672</v>
       </c>
       <c r="L15" t="n">
         <v>415.544332860072</v>
@@ -35740,7 +35740,7 @@
         <v>568.0544267520579</v>
       </c>
       <c r="O15" t="n">
-        <v>451.3476920446819</v>
+        <v>256.7041903077364</v>
       </c>
       <c r="P15" t="n">
         <v>345.6538486452342</v>
@@ -35901,10 +35901,10 @@
         <v>410.9329477456757</v>
       </c>
       <c r="P17" t="n">
-        <v>313.4098513402659</v>
+        <v>249.08783312968</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.07673633323643</v>
+        <v>157.3987545438214</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>119.8576649981483</v>
+        <v>55.53564678756288</v>
       </c>
       <c r="K20" t="n">
         <v>303.1472797676957</v>
@@ -36138,7 +36138,7 @@
         <v>410.9329477456757</v>
       </c>
       <c r="P20" t="n">
-        <v>249.08783312968</v>
+        <v>313.4098513402659</v>
       </c>
       <c r="Q20" t="n">
         <v>157.3987545438214</v>
@@ -36211,16 +36211,16 @@
         <v>538.2541658561611</v>
       </c>
       <c r="N21" t="n">
-        <v>568.0544267520579</v>
+        <v>373.4109250151124</v>
       </c>
       <c r="O21" t="n">
         <v>451.3476920446819</v>
       </c>
       <c r="P21" t="n">
-        <v>329.9890410080213</v>
+        <v>345.6538486452342</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>178.9786940997326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>147.9338526958823</v>
+        <v>263.3302985682672</v>
       </c>
       <c r="L24" t="n">
         <v>415.544332860072</v>
@@ -36457,7 +36457,7 @@
         <v>345.6538486452342</v>
       </c>
       <c r="Q24" t="n">
-        <v>178.9786940997326</v>
+        <v>63.58224822734754</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>79.24705586456022</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>263.3302985682672</v>
+        <v>147.9338526958823</v>
       </c>
       <c r="L27" t="n">
         <v>415.544332860072</v>
@@ -36685,7 +36685,7 @@
         <v>538.2541658561611</v>
       </c>
       <c r="N27" t="n">
-        <v>552.3896191148453</v>
+        <v>568.0544267520579</v>
       </c>
       <c r="O27" t="n">
         <v>451.3476920446819</v>
@@ -36694,7 +36694,7 @@
         <v>345.6538486452342</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>178.9786940997326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>79.24705586456022</v>
       </c>
       <c r="K30" t="n">
-        <v>68.68679683132207</v>
+        <v>263.3302985682672</v>
       </c>
       <c r="L30" t="n">
         <v>415.544332860072</v>
@@ -36922,7 +36922,7 @@
         <v>538.2541658561611</v>
       </c>
       <c r="N30" t="n">
-        <v>568.0544267520579</v>
+        <v>373.4109250151128</v>
       </c>
       <c r="O30" t="n">
         <v>451.3476920446819</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>63.58224822734777</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>263.3302985682672</v>
@@ -37156,7 +37156,7 @@
         <v>415.544332860072</v>
       </c>
       <c r="M33" t="n">
-        <v>538.2541658561611</v>
+        <v>422.8577199837762</v>
       </c>
       <c r="N33" t="n">
         <v>568.0544267520579</v>
@@ -37168,7 +37168,7 @@
         <v>345.6538486452342</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>178.9786940997326</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.53564678756288</v>
+        <v>119.8576649981483</v>
       </c>
       <c r="K35" t="n">
         <v>303.1472797676957</v>
@@ -37317,7 +37317,7 @@
         <v>492.2382462423918</v>
       </c>
       <c r="N35" t="n">
-        <v>484.5292615522304</v>
+        <v>420.2072433416459</v>
       </c>
       <c r="O35" t="n">
         <v>410.9329477456757</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>79.24705586456022</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>263.3302985682672</v>
@@ -37396,7 +37396,7 @@
         <v>538.2541658561611</v>
       </c>
       <c r="N36" t="n">
-        <v>373.4109250151119</v>
+        <v>568.0544267520579</v>
       </c>
       <c r="O36" t="n">
         <v>451.3476920446819</v>
@@ -37405,7 +37405,7 @@
         <v>345.6538486452342</v>
       </c>
       <c r="Q36" t="n">
-        <v>178.9786940997326</v>
+        <v>63.58224822734754</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.53564678756288</v>
+        <v>119.8576649981483</v>
       </c>
       <c r="K38" t="n">
         <v>303.1472797676957</v>
@@ -37560,7 +37560,7 @@
         <v>410.9329477456757</v>
       </c>
       <c r="P38" t="n">
-        <v>313.4098513402659</v>
+        <v>249.0878331296809</v>
       </c>
       <c r="Q38" t="n">
         <v>157.3987545438214</v>
@@ -37633,16 +37633,16 @@
         <v>538.2541658561611</v>
       </c>
       <c r="N39" t="n">
-        <v>568.0544267520579</v>
+        <v>373.4109250151124</v>
       </c>
       <c r="O39" t="n">
         <v>451.3476920446819</v>
       </c>
       <c r="P39" t="n">
-        <v>329.9890410080208</v>
+        <v>345.6538486452342</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>178.9786940997326</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>119.8576649981483</v>
+        <v>55.53564678756288</v>
       </c>
       <c r="K41" t="n">
         <v>303.1472797676957</v>
@@ -37797,7 +37797,7 @@
         <v>410.9329477456757</v>
       </c>
       <c r="P41" t="n">
-        <v>249.08783312968</v>
+        <v>313.4098513402659</v>
       </c>
       <c r="Q41" t="n">
         <v>157.3987545438214</v>
@@ -37861,7 +37861,7 @@
         <v>79.24705586456022</v>
       </c>
       <c r="K42" t="n">
-        <v>68.68679683132181</v>
+        <v>263.3302985682672</v>
       </c>
       <c r="L42" t="n">
         <v>415.544332860072</v>
@@ -37870,7 +37870,7 @@
         <v>538.2541658561611</v>
       </c>
       <c r="N42" t="n">
-        <v>568.0544267520579</v>
+        <v>373.4109250151124</v>
       </c>
       <c r="O42" t="n">
         <v>451.3476920446819</v>
@@ -38022,13 +38022,13 @@
         <v>303.1472797676957</v>
       </c>
       <c r="L44" t="n">
-        <v>428.5750249741775</v>
+        <v>364.2530067635921</v>
       </c>
       <c r="M44" t="n">
         <v>492.2382462423918</v>
       </c>
       <c r="N44" t="n">
-        <v>420.207243341645</v>
+        <v>484.5292615522304</v>
       </c>
       <c r="O44" t="n">
         <v>410.9329477456757</v>
@@ -38098,7 +38098,7 @@
         <v>79.24705586456022</v>
       </c>
       <c r="K45" t="n">
-        <v>68.68679683132181</v>
+        <v>263.3302985682672</v>
       </c>
       <c r="L45" t="n">
         <v>415.544332860072</v>
@@ -38113,10 +38113,10 @@
         <v>451.3476920446819</v>
       </c>
       <c r="P45" t="n">
-        <v>345.6538486452342</v>
+        <v>329.9890410080213</v>
       </c>
       <c r="Q45" t="n">
-        <v>178.9786940997326</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
